--- a/data_clustering/pv_production.xlsx
+++ b/data_clustering/pv_production.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tuwienacat-my.sharepoint.com/personal/e11820598_student_tuwien_ac_at/Documents/EEG - Work/Microgrids Diplomarbeit/Model 1/Data Demand/OneDrive_2024-12-06/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jakob\PycharmProjects\Model-1\data_clustering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{0C626289-E7BF-4F49-B01C-85849B7BA2A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9774C058-692B-4D8F-8A85-7CB5A97C7244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5295" yWindow="1125" windowWidth="21600" windowHeight="11145" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="jannuary" sheetId="1" r:id="rId1"/>
@@ -24,10 +24,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -345,8 +341,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A744"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A744"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -378,62 +374,62 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0.214</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0.45700000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>0.61699999999999999</v>
+        <v>0.214</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>0.70699999999999996</v>
+        <v>0.45700000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>0.73799999999999999</v>
+        <v>0.61699999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>0.71299999999999997</v>
+        <v>0.70699999999999996</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>0.63100000000000001</v>
+        <v>0.73799999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>0.47899999999999998</v>
+        <v>0.71299999999999997</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>0.252</v>
+        <v>0.63100000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>1.7999999999999999E-2</v>
+        <v>0.47899999999999998</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>0</v>
+        <v>0.252</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>0</v>
+        <v>1.7999999999999999E-2</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
@@ -498,62 +494,62 @@
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>6.3E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>0.17499999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>0.27600000000000002</v>
+        <v>6.3E-2</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>0.40100000000000002</v>
+        <v>0.17499999999999999</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>0.45100000000000001</v>
+        <v>0.27600000000000002</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>0.45</v>
+        <v>0.40100000000000002</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>0.42</v>
+        <v>0.45100000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>0.30299999999999999</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>0.122</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>4.0000000000000001E-3</v>
+        <v>0.30299999999999999</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>0</v>
+        <v>0.122</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>0</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
@@ -618,62 +614,62 @@
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>2.5999999999999999E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>0.112</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>0.255</v>
+        <v>2.5999999999999999E-2</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>0.33100000000000002</v>
+        <v>0.112</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>0.29599999999999999</v>
+        <v>0.255</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>0.252</v>
+        <v>0.33100000000000002</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>0.20899999999999999</v>
+        <v>0.29599999999999999</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>0.13900000000000001</v>
+        <v>0.252</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>4.8000000000000001E-2</v>
+        <v>0.20899999999999999</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>1E-3</v>
+        <v>0.13900000000000001</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>0</v>
+        <v>4.8000000000000001E-2</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
@@ -738,62 +734,62 @@
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>8.7999999999999995E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>0.29499999999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>0.505</v>
+        <v>8.7999999999999995E-2</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>0.65700000000000003</v>
+        <v>0.29499999999999998</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>0.74099999999999999</v>
+        <v>0.505</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>0.71899999999999997</v>
+        <v>0.65700000000000003</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>0.64200000000000002</v>
+        <v>0.74099999999999999</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>0.495</v>
+        <v>0.71899999999999997</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>0.26900000000000002</v>
+        <v>0.64200000000000002</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>2.1999999999999999E-2</v>
+        <v>0.495</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>0</v>
+        <v>0.26900000000000002</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>0</v>
+        <v>2.1999999999999999E-2</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
@@ -858,62 +854,62 @@
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>0.20200000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>0.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>0.61499999999999999</v>
+        <v>0.20200000000000001</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>0.70899999999999996</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>0.72599999999999998</v>
+        <v>0.61499999999999999</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>0.68700000000000006</v>
+        <v>0.70899999999999996</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>0.59099999999999997</v>
+        <v>0.72599999999999998</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>0.374</v>
+        <v>0.68700000000000006</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>0.13300000000000001</v>
+        <v>0.59099999999999997</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>5.0000000000000001E-3</v>
+        <v>0.374</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>0</v>
+        <v>0.13300000000000001</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
@@ -978,57 +974,57 @@
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>6.7000000000000004E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>0.20300000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>0.38</v>
+        <v>6.7000000000000004E-2</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>0.498</v>
+        <v>0.20300000000000001</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>0.51500000000000001</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>0.40699999999999997</v>
+        <v>0.498</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>0.27100000000000002</v>
+        <v>0.51500000000000001</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>0.14599999999999999</v>
+        <v>0.40699999999999997</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>2.8000000000000001E-2</v>
+        <v>0.27100000000000002</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>0</v>
+        <v>0.14599999999999999</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>0</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
@@ -1098,62 +1094,62 @@
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>3.5999999999999997E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>0.121</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>0.24399999999999999</v>
+        <v>3.5999999999999997E-2</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>0.29799999999999999</v>
+        <v>0.121</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>0.27800000000000002</v>
+        <v>0.24399999999999999</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>0.2</v>
+        <v>0.29799999999999999</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>0.128</v>
+        <v>0.27800000000000002</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>4.5999999999999999E-2</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>1E-3</v>
+        <v>0.128</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>0</v>
+        <v>4.5999999999999999E-2</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
@@ -1218,57 +1214,57 @@
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>1.4E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>8.5000000000000006E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>0.189</v>
+        <v>1.4E-2</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>0.30499999999999999</v>
+        <v>8.5000000000000006E-2</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>0.252</v>
+        <v>0.189</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>0.13100000000000001</v>
+        <v>0.30499999999999999</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>6.9000000000000006E-2</v>
+        <v>0.252</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>3.4000000000000002E-2</v>
+        <v>0.13100000000000001</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>1.7000000000000001E-2</v>
+        <v>6.9000000000000006E-2</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>0</v>
+        <v>3.4000000000000002E-2</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>0</v>
+        <v>1.7000000000000001E-2</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
@@ -1338,62 +1334,62 @@
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>9.1999999999999998E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>0.252</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>0.44</v>
+        <v>9.1999999999999998E-2</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>0.59299999999999997</v>
+        <v>0.252</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>0.65</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>0.64300000000000002</v>
+        <v>0.59299999999999997</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>0.57299999999999995</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>0.44</v>
+        <v>0.64300000000000002</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>0.23100000000000001</v>
+        <v>0.57299999999999995</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>1.7999999999999999E-2</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>0</v>
+        <v>0.23100000000000001</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>0</v>
+        <v>1.7999999999999999E-2</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
@@ -1458,62 +1454,62 @@
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>0.115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>0.41299999999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>0.57799999999999996</v>
+        <v>0.115</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>0.64500000000000002</v>
+        <v>0.41299999999999998</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>0.67700000000000005</v>
+        <v>0.57799999999999996</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>0.67200000000000004</v>
+        <v>0.64500000000000002</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>0.63600000000000001</v>
+        <v>0.67700000000000005</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>0.505</v>
+        <v>0.67200000000000004</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>0.29199999999999998</v>
+        <v>0.63600000000000001</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231">
-        <v>3.4000000000000002E-2</v>
+        <v>0.505</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232">
-        <v>0</v>
+        <v>0.29199999999999998</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233">
-        <v>0</v>
+        <v>3.4000000000000002E-2</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
@@ -1573,67 +1569,67 @@
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245">
-        <v>2E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246">
-        <v>0.253</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247">
-        <v>0.49399999999999999</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248">
-        <v>0.65400000000000003</v>
+        <v>0.253</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249">
-        <v>0.74</v>
+        <v>0.49399999999999999</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250">
-        <v>0.75900000000000001</v>
+        <v>0.65400000000000003</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251">
-        <v>0.73099999999999998</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252">
-        <v>0.64300000000000002</v>
+        <v>0.75900000000000001</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253">
-        <v>0.48799999999999999</v>
+        <v>0.73099999999999998</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254">
-        <v>0.26600000000000001</v>
+        <v>0.64300000000000002</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255">
-        <v>2.8000000000000001E-2</v>
+        <v>0.48799999999999999</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256">
-        <v>0</v>
+        <v>0.26600000000000001</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257">
-        <v>0</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
@@ -1693,67 +1689,67 @@
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269">
-        <v>2E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271">
-        <v>0.495</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272">
-        <v>0.65300000000000002</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273">
-        <v>0.72799999999999998</v>
+        <v>0.495</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274">
-        <v>0.72299999999999998</v>
+        <v>0.65300000000000002</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275">
-        <v>0.67800000000000005</v>
+        <v>0.72799999999999998</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276">
-        <v>0.63900000000000001</v>
+        <v>0.72299999999999998</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277">
-        <v>0.51300000000000001</v>
+        <v>0.67800000000000005</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278">
-        <v>0.29399999999999998</v>
+        <v>0.63900000000000001</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279">
-        <v>3.5000000000000003E-2</v>
+        <v>0.51300000000000001</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280">
-        <v>0</v>
+        <v>0.29399999999999998</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281">
-        <v>0</v>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
@@ -1813,67 +1809,67 @@
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294">
-        <v>0.161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295">
-        <v>0.374</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296">
-        <v>0.53200000000000003</v>
+        <v>0.161</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297">
-        <v>0.627</v>
+        <v>0.374</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298">
-        <v>0.64900000000000002</v>
+        <v>0.53200000000000003</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299">
-        <v>0.53200000000000003</v>
+        <v>0.627</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300">
-        <v>0.40400000000000003</v>
+        <v>0.64900000000000002</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301">
-        <v>0.23100000000000001</v>
+        <v>0.53200000000000003</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302">
-        <v>7.0000000000000007E-2</v>
+        <v>0.40400000000000003</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303">
-        <v>1E-3</v>
+        <v>0.23100000000000001</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304">
-        <v>0</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
@@ -1938,62 +1934,62 @@
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A318">
-        <v>2.3E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A319">
-        <v>9.9000000000000005E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A320">
-        <v>0.17799999999999999</v>
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A321">
-        <v>0.316</v>
+        <v>9.9000000000000005E-2</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A322">
-        <v>0.26700000000000002</v>
+        <v>0.17799999999999999</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A323">
-        <v>0.30199999999999999</v>
+        <v>0.316</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A324">
-        <v>0.27100000000000002</v>
+        <v>0.26700000000000002</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A325">
-        <v>0.19600000000000001</v>
+        <v>0.30199999999999999</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A326">
-        <v>9.7000000000000003E-2</v>
+        <v>0.27100000000000002</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A327">
-        <v>6.0000000000000001E-3</v>
+        <v>0.19600000000000001</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A328">
-        <v>0</v>
+        <v>9.7000000000000003E-2</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A329">
-        <v>0</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.25">
@@ -2058,62 +2054,62 @@
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A342">
-        <v>0.13200000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A343">
-        <v>0.41799999999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A344">
-        <v>0.57799999999999996</v>
+        <v>0.13200000000000001</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A345">
-        <v>0.69799999999999995</v>
+        <v>0.41799999999999998</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A346">
-        <v>0.75600000000000001</v>
+        <v>0.57799999999999996</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A347">
-        <v>0.73599999999999999</v>
+        <v>0.69799999999999995</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A348">
-        <v>0.65300000000000002</v>
+        <v>0.75600000000000001</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A349">
-        <v>0.49299999999999999</v>
+        <v>0.73599999999999999</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A350">
-        <v>0.26400000000000001</v>
+        <v>0.65300000000000002</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A351">
-        <v>2.9000000000000001E-2</v>
+        <v>0.49299999999999999</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A352">
-        <v>0</v>
+        <v>0.26400000000000001</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A353">
-        <v>0</v>
+        <v>2.9000000000000001E-2</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.25">
@@ -2178,62 +2174,62 @@
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A366">
-        <v>2.3E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A367">
-        <v>6.4000000000000001E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A368">
-        <v>7.1999999999999995E-2</v>
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A369">
-        <v>0.08</v>
+        <v>6.4000000000000001E-2</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A370">
-        <v>9.7000000000000003E-2</v>
+        <v>7.1999999999999995E-2</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A371">
-        <v>0.127</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A372">
-        <v>8.6999999999999994E-2</v>
+        <v>9.7000000000000003E-2</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A373">
-        <v>7.5999999999999998E-2</v>
+        <v>0.127</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A374">
-        <v>2.5000000000000001E-2</v>
+        <v>8.6999999999999994E-2</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A375">
-        <v>1E-3</v>
+        <v>7.5999999999999998E-2</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A376">
-        <v>0</v>
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A377">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.25">
@@ -2293,67 +2289,67 @@
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A389">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A390">
-        <v>0.16800000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A391">
-        <v>0.378</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A392">
-        <v>0.504</v>
+        <v>0.16800000000000001</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A393">
-        <v>0.58499999999999996</v>
+        <v>0.378</v>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A394">
-        <v>0.60399999999999998</v>
+        <v>0.504</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A395">
-        <v>0.63300000000000001</v>
+        <v>0.58499999999999996</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A396">
-        <v>0.63600000000000001</v>
+        <v>0.60399999999999998</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A397">
-        <v>0.52100000000000002</v>
+        <v>0.63300000000000001</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A398">
-        <v>0.28899999999999998</v>
+        <v>0.63600000000000001</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A399">
-        <v>4.2999999999999997E-2</v>
+        <v>0.52100000000000002</v>
       </c>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A400">
-        <v>0</v>
+        <v>0.28899999999999998</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A401">
-        <v>0</v>
+        <v>4.2999999999999997E-2</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.25">
@@ -2413,67 +2409,67 @@
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A413">
-        <v>4.0000000000000001E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A414">
-        <v>0.23400000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A415">
-        <v>0.45600000000000002</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A416">
-        <v>0.59699999999999998</v>
+        <v>0.23400000000000001</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A417">
-        <v>0.69799999999999995</v>
+        <v>0.45600000000000002</v>
       </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A418">
-        <v>0.72799999999999998</v>
+        <v>0.59699999999999998</v>
       </c>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A419">
-        <v>0.68700000000000006</v>
+        <v>0.69799999999999995</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A420">
-        <v>0.61399999999999999</v>
+        <v>0.72799999999999998</v>
       </c>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A421">
-        <v>0.495</v>
+        <v>0.68700000000000006</v>
       </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A422">
-        <v>0.28299999999999997</v>
+        <v>0.61399999999999999</v>
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A423">
-        <v>5.1999999999999998E-2</v>
+        <v>0.495</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A424">
-        <v>0</v>
+        <v>0.28299999999999997</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A425">
-        <v>0</v>
+        <v>5.1999999999999998E-2</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.25">
@@ -2533,67 +2529,67 @@
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A437">
-        <v>6.0000000000000001E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A438">
-        <v>0.27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A439">
-        <v>0.497</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A440">
-        <v>0.5</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A441">
-        <v>0.57899999999999996</v>
+        <v>0.497</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A442">
-        <v>0.745</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A443">
-        <v>0.59</v>
+        <v>0.57899999999999996</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A444">
-        <v>0.39600000000000002</v>
+        <v>0.745</v>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A445">
-        <v>0.34399999999999997</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A446">
-        <v>0.23400000000000001</v>
+        <v>0.39600000000000002</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A447">
-        <v>0.05</v>
+        <v>0.34399999999999997</v>
       </c>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A448">
-        <v>0</v>
+        <v>0.23400000000000001</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A449">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.25">
@@ -2653,67 +2649,67 @@
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A461">
-        <v>6.0000000000000001E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A462">
-        <v>0.255</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A463">
-        <v>0.36099999999999999</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A464">
-        <v>0.44600000000000001</v>
+        <v>0.255</v>
       </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A465">
-        <v>0.51500000000000001</v>
+        <v>0.36099999999999999</v>
       </c>
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A466">
-        <v>0.55800000000000005</v>
+        <v>0.44600000000000001</v>
       </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A467">
-        <v>0.378</v>
+        <v>0.51500000000000001</v>
       </c>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A468">
-        <v>0.28799999999999998</v>
+        <v>0.55800000000000005</v>
       </c>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A469">
-        <v>0.17799999999999999</v>
+        <v>0.378</v>
       </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A470">
-        <v>6.2E-2</v>
+        <v>0.28799999999999998</v>
       </c>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A471">
-        <v>5.0000000000000001E-3</v>
+        <v>0.17799999999999999</v>
       </c>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A472">
-        <v>0</v>
+        <v>6.2E-2</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A473">
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.25">
@@ -2773,67 +2769,67 @@
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A485">
-        <v>5.0000000000000001E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A486">
-        <v>0.246</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A487">
-        <v>0.48799999999999999</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A488">
-        <v>0.64800000000000002</v>
+        <v>0.246</v>
       </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A489">
-        <v>0.73799999999999999</v>
+        <v>0.48799999999999999</v>
       </c>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A490">
-        <v>0.746</v>
+        <v>0.64800000000000002</v>
       </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A491">
-        <v>0.66300000000000003</v>
+        <v>0.73799999999999999</v>
       </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A492">
-        <v>0.60799999999999998</v>
+        <v>0.746</v>
       </c>
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A493">
-        <v>0.47899999999999998</v>
+        <v>0.66300000000000003</v>
       </c>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A494">
-        <v>0.25900000000000001</v>
+        <v>0.60799999999999998</v>
       </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A495">
-        <v>3.5000000000000003E-2</v>
+        <v>0.47899999999999998</v>
       </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A496">
-        <v>0</v>
+        <v>0.25900000000000001</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A497">
-        <v>0</v>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.25">
@@ -2893,67 +2889,67 @@
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A509">
-        <v>4.0000000000000001E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A510">
-        <v>0.23100000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A511">
-        <v>0.46800000000000003</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A512">
-        <v>0.628</v>
+        <v>0.23100000000000001</v>
       </c>
     </row>
     <row r="513" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A513">
-        <v>0.72</v>
+        <v>0.46800000000000003</v>
       </c>
     </row>
     <row r="514" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A514">
-        <v>0.752</v>
+        <v>0.628</v>
       </c>
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A515">
-        <v>0.72799999999999998</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A516">
-        <v>0.64400000000000002</v>
+        <v>0.752</v>
       </c>
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A517">
-        <v>0.48799999999999999</v>
+        <v>0.72799999999999998</v>
       </c>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A518">
-        <v>0.26500000000000001</v>
+        <v>0.64400000000000002</v>
       </c>
     </row>
     <row r="519" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A519">
-        <v>3.9E-2</v>
+        <v>0.48799999999999999</v>
       </c>
     </row>
     <row r="520" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A520">
-        <v>0</v>
+        <v>0.26500000000000001</v>
       </c>
     </row>
     <row r="521" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A521">
-        <v>0</v>
+        <v>3.9E-2</v>
       </c>
     </row>
     <row r="522" spans="1:1" x14ac:dyDescent="0.25">
@@ -3013,67 +3009,67 @@
     </row>
     <row r="533" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A533">
-        <v>8.0000000000000002E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="534" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A534">
-        <v>0.27900000000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A535">
-        <v>0.50900000000000001</v>
+        <v>8.0000000000000002E-3</v>
       </c>
     </row>
     <row r="536" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A536">
-        <v>0.66400000000000003</v>
+        <v>0.27900000000000003</v>
       </c>
     </row>
     <row r="537" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A537">
-        <v>0.753</v>
+        <v>0.50900000000000001</v>
       </c>
     </row>
     <row r="538" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A538">
-        <v>0.78</v>
+        <v>0.66400000000000003</v>
       </c>
     </row>
     <row r="539" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A539">
-        <v>0.75600000000000001</v>
+        <v>0.753</v>
       </c>
     </row>
     <row r="540" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A540">
-        <v>0.67500000000000004</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="541" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A541">
-        <v>0.52900000000000003</v>
+        <v>0.75600000000000001</v>
       </c>
     </row>
     <row r="542" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A542">
-        <v>0.308</v>
+        <v>0.67500000000000004</v>
       </c>
     </row>
     <row r="543" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A543">
-        <v>5.6000000000000001E-2</v>
+        <v>0.52900000000000003</v>
       </c>
     </row>
     <row r="544" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A544">
-        <v>0</v>
+        <v>0.308</v>
       </c>
     </row>
     <row r="545" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A545">
-        <v>0</v>
+        <v>5.6000000000000001E-2</v>
       </c>
     </row>
     <row r="546" spans="1:1" x14ac:dyDescent="0.25">
@@ -3133,67 +3129,67 @@
     </row>
     <row r="557" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A557">
-        <v>5.0000000000000001E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="558" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A558">
-        <v>0.217</v>
+        <v>0</v>
       </c>
     </row>
     <row r="559" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A559">
-        <v>0.45300000000000001</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="560" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A560">
-        <v>0.61399999999999999</v>
+        <v>0.217</v>
       </c>
     </row>
     <row r="561" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A561">
-        <v>0.70199999999999996</v>
+        <v>0.45300000000000001</v>
       </c>
     </row>
     <row r="562" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A562">
-        <v>0.76100000000000001</v>
+        <v>0.61399999999999999</v>
       </c>
     </row>
     <row r="563" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A563">
-        <v>0.73</v>
+        <v>0.70199999999999996</v>
       </c>
     </row>
     <row r="564" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A564">
-        <v>0.63200000000000001</v>
+        <v>0.76100000000000001</v>
       </c>
     </row>
     <row r="565" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A565">
-        <v>0.41</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="566" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A566">
-        <v>0.20399999999999999</v>
+        <v>0.63200000000000001</v>
       </c>
     </row>
     <row r="567" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A567">
-        <v>2.7E-2</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="568" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A568">
-        <v>0</v>
+        <v>0.20399999999999999</v>
       </c>
     </row>
     <row r="569" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A569">
-        <v>0</v>
+        <v>2.7E-2</v>
       </c>
     </row>
     <row r="570" spans="1:1" x14ac:dyDescent="0.25">
@@ -3253,67 +3249,67 @@
     </row>
     <row r="581" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A581">
-        <v>7.0000000000000001E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="582" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A582">
-        <v>0.23699999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="583" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A583">
-        <v>0.47699999999999998</v>
+        <v>7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="584" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A584">
-        <v>0.64100000000000001</v>
+        <v>0.23699999999999999</v>
       </c>
     </row>
     <row r="585" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A585">
-        <v>0.73699999999999999</v>
+        <v>0.47699999999999998</v>
       </c>
     </row>
     <row r="586" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A586">
-        <v>0.76900000000000002</v>
+        <v>0.64100000000000001</v>
       </c>
     </row>
     <row r="587" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A587">
-        <v>0.75</v>
+        <v>0.73699999999999999</v>
       </c>
     </row>
     <row r="588" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A588">
-        <v>0.67200000000000004</v>
+        <v>0.76900000000000002</v>
       </c>
     </row>
     <row r="589" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A589">
-        <v>0.52700000000000002</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="590" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A590">
-        <v>0.307</v>
+        <v>0.67200000000000004</v>
       </c>
     </row>
     <row r="591" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A591">
-        <v>5.5E-2</v>
+        <v>0.52700000000000002</v>
       </c>
     </row>
     <row r="592" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A592">
-        <v>0</v>
+        <v>0.307</v>
       </c>
     </row>
     <row r="593" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A593">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
     </row>
     <row r="594" spans="1:1" x14ac:dyDescent="0.25">
@@ -3373,67 +3369,67 @@
     </row>
     <row r="605" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A605">
-        <v>7.0000000000000001E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="606" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A606">
-        <v>0.24399999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="607" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A607">
-        <v>0.47899999999999998</v>
+        <v>7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="608" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A608">
-        <v>0.63600000000000001</v>
+        <v>0.24399999999999999</v>
       </c>
     </row>
     <row r="609" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A609">
-        <v>0.72499999999999998</v>
+        <v>0.47899999999999998</v>
       </c>
     </row>
     <row r="610" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A610">
-        <v>0.76100000000000001</v>
+        <v>0.63600000000000001</v>
       </c>
     </row>
     <row r="611" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A611">
-        <v>0.73499999999999999</v>
+        <v>0.72499999999999998</v>
       </c>
     </row>
     <row r="612" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A612">
-        <v>0.65200000000000002</v>
+        <v>0.76100000000000001</v>
       </c>
     </row>
     <row r="613" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A613">
-        <v>0.495</v>
+        <v>0.73499999999999999</v>
       </c>
     </row>
     <row r="614" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A614">
-        <v>0.27800000000000002</v>
+        <v>0.65200000000000002</v>
       </c>
     </row>
     <row r="615" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A615">
-        <v>4.5999999999999999E-2</v>
+        <v>0.495</v>
       </c>
     </row>
     <row r="616" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A616">
-        <v>0</v>
+        <v>0.27800000000000002</v>
       </c>
     </row>
     <row r="617" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A617">
-        <v>0</v>
+        <v>4.5999999999999999E-2</v>
       </c>
     </row>
     <row r="618" spans="1:1" x14ac:dyDescent="0.25">
@@ -3493,67 +3489,67 @@
     </row>
     <row r="629" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A629">
-        <v>3.0000000000000001E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="630" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A630">
-        <v>0.13400000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="631" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A631">
-        <v>0.34100000000000003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="632" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A632">
-        <v>0.51300000000000001</v>
+        <v>0.13400000000000001</v>
       </c>
     </row>
     <row r="633" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A633">
-        <v>0.61599999999999999</v>
+        <v>0.34100000000000003</v>
       </c>
     </row>
     <row r="634" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A634">
-        <v>0.66800000000000004</v>
+        <v>0.51300000000000001</v>
       </c>
     </row>
     <row r="635" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A635">
-        <v>0.628</v>
+        <v>0.61599999999999999</v>
       </c>
     </row>
     <row r="636" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A636">
-        <v>0.52100000000000002</v>
+        <v>0.66800000000000004</v>
       </c>
     </row>
     <row r="637" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A637">
-        <v>0.39100000000000001</v>
+        <v>0.628</v>
       </c>
     </row>
     <row r="638" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A638">
-        <v>0.17299999999999999</v>
+        <v>0.52100000000000002</v>
       </c>
     </row>
     <row r="639" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A639">
-        <v>0.02</v>
+        <v>0.39100000000000001</v>
       </c>
     </row>
     <row r="640" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A640">
-        <v>0</v>
+        <v>0.17299999999999999</v>
       </c>
     </row>
     <row r="641" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A641">
-        <v>0</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="642" spans="1:1" x14ac:dyDescent="0.25">
@@ -3613,67 +3609,67 @@
     </row>
     <row r="653" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A653">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="654" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A654">
-        <v>4.2000000000000003E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="655" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A655">
-        <v>0.09</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="656" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A656">
-        <v>0.15</v>
+        <v>4.2000000000000003E-2</v>
       </c>
     </row>
     <row r="657" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A657">
-        <v>0.20799999999999999</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="658" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A658">
-        <v>0.20200000000000001</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="659" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A659">
-        <v>0.157</v>
+        <v>0.20799999999999999</v>
       </c>
     </row>
     <row r="660" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A660">
-        <v>0.107</v>
+        <v>0.20200000000000001</v>
       </c>
     </row>
     <row r="661" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A661">
-        <v>9.1999999999999998E-2</v>
+        <v>0.157</v>
       </c>
     </row>
     <row r="662" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A662">
-        <v>6.8000000000000005E-2</v>
+        <v>0.107</v>
       </c>
     </row>
     <row r="663" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A663">
-        <v>1.2E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
     </row>
     <row r="664" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A664">
-        <v>0</v>
+        <v>6.8000000000000005E-2</v>
       </c>
     </row>
     <row r="665" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A665">
-        <v>0</v>
+        <v>1.2E-2</v>
       </c>
     </row>
     <row r="666" spans="1:1" x14ac:dyDescent="0.25">
@@ -3733,67 +3729,67 @@
     </row>
     <row r="677" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A677">
-        <v>6.0000000000000001E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="678" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A678">
-        <v>0.17100000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="679" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A679">
-        <v>0.38700000000000001</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="680" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A680">
-        <v>0.61099999999999999</v>
+        <v>0.17100000000000001</v>
       </c>
     </row>
     <row r="681" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A681">
-        <v>0.70499999999999996</v>
+        <v>0.38700000000000001</v>
       </c>
     </row>
     <row r="682" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A682">
-        <v>0.74099999999999999</v>
+        <v>0.61099999999999999</v>
       </c>
     </row>
     <row r="683" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A683">
-        <v>0.72699999999999998</v>
+        <v>0.70499999999999996</v>
       </c>
     </row>
     <row r="684" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A684">
-        <v>0.59799999999999998</v>
+        <v>0.74099999999999999</v>
       </c>
     </row>
     <row r="685" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A685">
-        <v>0.46200000000000002</v>
+        <v>0.72699999999999998</v>
       </c>
     </row>
     <row r="686" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A686">
-        <v>0.28399999999999997</v>
+        <v>0.59799999999999998</v>
       </c>
     </row>
     <row r="687" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A687">
-        <v>5.6000000000000001E-2</v>
+        <v>0.46200000000000002</v>
       </c>
     </row>
     <row r="688" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A688">
-        <v>0</v>
+        <v>0.28399999999999997</v>
       </c>
     </row>
     <row r="689" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A689">
-        <v>0</v>
+        <v>5.6000000000000001E-2</v>
       </c>
     </row>
     <row r="690" spans="1:1" x14ac:dyDescent="0.25">
@@ -3853,67 +3849,67 @@
     </row>
     <row r="701" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A701">
-        <v>1.2E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="702" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A702">
-        <v>0.28999999999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="703" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A703">
-        <v>0.52400000000000002</v>
+        <v>1.2E-2</v>
       </c>
     </row>
     <row r="704" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A704">
-        <v>0.67</v>
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="705" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A705">
-        <v>0.751</v>
+        <v>0.52400000000000002</v>
       </c>
     </row>
     <row r="706" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A706">
-        <v>0.78200000000000003</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="707" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A707">
-        <v>0.75800000000000001</v>
+        <v>0.751</v>
       </c>
     </row>
     <row r="708" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A708">
-        <v>0.67800000000000005</v>
+        <v>0.78200000000000003</v>
       </c>
     </row>
     <row r="709" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A709">
-        <v>0.53400000000000003</v>
+        <v>0.75800000000000001</v>
       </c>
     </row>
     <row r="710" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A710">
-        <v>0.309</v>
+        <v>0.67800000000000005</v>
       </c>
     </row>
     <row r="711" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A711">
-        <v>5.5E-2</v>
+        <v>0.53400000000000003</v>
       </c>
     </row>
     <row r="712" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A712">
-        <v>0</v>
+        <v>0.309</v>
       </c>
     </row>
     <row r="713" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A713">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
     </row>
     <row r="714" spans="1:1" x14ac:dyDescent="0.25">
@@ -3973,67 +3969,67 @@
     </row>
     <row r="725" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A725">
-        <v>8.9999999999999993E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="726" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A726">
-        <v>0.216</v>
+        <v>0</v>
       </c>
     </row>
     <row r="727" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A727">
-        <v>0.44800000000000001</v>
+        <v>8.9999999999999993E-3</v>
       </c>
     </row>
     <row r="728" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A728">
-        <v>0.63200000000000001</v>
+        <v>0.216</v>
       </c>
     </row>
     <row r="729" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A729">
-        <v>0.72499999999999998</v>
+        <v>0.44800000000000001</v>
       </c>
     </row>
     <row r="730" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A730">
-        <v>0.76200000000000001</v>
+        <v>0.63200000000000001</v>
       </c>
     </row>
     <row r="731" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A731">
-        <v>0.71399999999999997</v>
+        <v>0.72499999999999998</v>
       </c>
     </row>
     <row r="732" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A732">
-        <v>0.52300000000000002</v>
+        <v>0.76200000000000001</v>
       </c>
     </row>
     <row r="733" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A733">
-        <v>0.24099999999999999</v>
+        <v>0.71399999999999997</v>
       </c>
     </row>
     <row r="734" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A734">
-        <v>0.20499999999999999</v>
+        <v>0.52300000000000002</v>
       </c>
     </row>
     <row r="735" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A735">
-        <v>0.05</v>
+        <v>0.24099999999999999</v>
       </c>
     </row>
     <row r="736" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A736">
-        <v>0</v>
+        <v>0.20499999999999999</v>
       </c>
     </row>
     <row r="737" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A737">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="738" spans="1:1" x14ac:dyDescent="0.25">
@@ -4103,87 +4099,87 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.03</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.151</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0.32700000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0.49</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>0.60599999999999998</v>
+        <v>0.151</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>0.68300000000000005</v>
+        <v>0.32700000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>0.71599999999999997</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>0.70199999999999996</v>
+        <v>0.60599999999999998</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>0.64500000000000002</v>
+        <v>0.68300000000000005</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>0.54300000000000004</v>
+        <v>0.71599999999999997</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>0.39600000000000002</v>
+        <v>0.70199999999999996</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>0.221</v>
+        <v>0.64500000000000002</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>5.8999999999999997E-2</v>
+        <v>0.54300000000000004</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>1E-3</v>
+        <v>0.39600000000000002</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>0</v>
+        <v>0.221</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>0</v>
+        <v>5.8999999999999997E-2</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
@@ -4223,87 +4219,87 @@
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>3.2000000000000001E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>0.14299999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>0.311</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>0.45</v>
+        <v>3.2000000000000001E-2</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>0.57499999999999996</v>
+        <v>0.14299999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>0.64</v>
+        <v>0.311</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>0.66800000000000004</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>0.67200000000000004</v>
+        <v>0.57499999999999996</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>0.624</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>0.52800000000000002</v>
+        <v>0.66800000000000004</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>0.39400000000000002</v>
+        <v>0.67200000000000004</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>0.221</v>
+        <v>0.624</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>0.06</v>
+        <v>0.52800000000000002</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>1E-3</v>
+        <v>0.39400000000000002</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>0</v>
+        <v>0.221</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>0</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
@@ -4343,87 +4339,87 @@
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>3.1E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>0.14699999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>0.32700000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>0.49299999999999999</v>
+        <v>3.1E-2</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>0.621</v>
+        <v>0.14699999999999999</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>0.69599999999999995</v>
+        <v>0.32700000000000001</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>0.72599999999999998</v>
+        <v>0.49299999999999999</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>0.70399999999999996</v>
+        <v>0.621</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>0.64400000000000002</v>
+        <v>0.69599999999999995</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>0.54</v>
+        <v>0.72599999999999998</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>0.39400000000000002</v>
+        <v>0.70399999999999996</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>0.219</v>
+        <v>0.64400000000000002</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>5.8999999999999997E-2</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>1E-3</v>
+        <v>0.39400000000000002</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>0</v>
+        <v>0.219</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>0</v>
+        <v>5.8999999999999997E-2</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
@@ -4463,82 +4459,82 @@
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>2.9000000000000001E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>0.151</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>0.33600000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>0.497</v>
+        <v>2.9000000000000001E-2</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>0.61699999999999999</v>
+        <v>0.151</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>0.69</v>
+        <v>0.33600000000000002</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>0.71899999999999997</v>
+        <v>0.497</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>0.70299999999999996</v>
+        <v>0.61699999999999999</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>0.63600000000000001</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>0.52800000000000002</v>
+        <v>0.71899999999999997</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>0.378</v>
+        <v>0.70299999999999996</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>0.20300000000000001</v>
+        <v>0.63600000000000001</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>5.8000000000000003E-2</v>
+        <v>0.52800000000000002</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>0</v>
+        <v>0.378</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>0</v>
+        <v>0.20300000000000001</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>0</v>
+        <v>5.8000000000000003E-2</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
@@ -4583,82 +4579,82 @@
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>2.9000000000000001E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>0.14799999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>0.498</v>
+        <v>2.9000000000000001E-2</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>0.61799999999999999</v>
+        <v>0.14799999999999999</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>0.69499999999999995</v>
+        <v>0.33500000000000002</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>0.71699999999999997</v>
+        <v>0.498</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>0.70099999999999996</v>
+        <v>0.61799999999999999</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>0.64200000000000002</v>
+        <v>0.69499999999999995</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>0.53300000000000003</v>
+        <v>0.71699999999999997</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>0.374</v>
+        <v>0.70099999999999996</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>0.20499999999999999</v>
+        <v>0.64200000000000002</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>5.7000000000000002E-2</v>
+        <v>0.53300000000000003</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>0</v>
+        <v>0.374</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>0</v>
+        <v>0.20499999999999999</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>0</v>
+        <v>5.7000000000000002E-2</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
@@ -4703,82 +4699,82 @@
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>2.8000000000000001E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>0.13900000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>0.32300000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>0.48699999999999999</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>0.624</v>
+        <v>0.13900000000000001</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>0.69499999999999995</v>
+        <v>0.32300000000000001</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>0.74</v>
+        <v>0.48699999999999999</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>0.72799999999999998</v>
+        <v>0.624</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>0.66800000000000004</v>
+        <v>0.69499999999999995</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>0.56200000000000006</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>0.41099999999999998</v>
+        <v>0.72799999999999998</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>0.22700000000000001</v>
+        <v>0.66800000000000004</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>5.6000000000000001E-2</v>
+        <v>0.56200000000000006</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>0</v>
+        <v>0.41099999999999998</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>0</v>
+        <v>0.22700000000000001</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>0</v>
+        <v>5.6000000000000001E-2</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
@@ -4823,82 +4819,82 @@
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>2.5999999999999999E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>0.152</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>0.35299999999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>0.52100000000000002</v>
+        <v>2.5999999999999999E-2</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>0.64300000000000002</v>
+        <v>0.152</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>0.71599999999999997</v>
+        <v>0.35299999999999998</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>0.74299999999999999</v>
+        <v>0.52100000000000002</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>0.72599999999999998</v>
+        <v>0.64300000000000002</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>0.66600000000000004</v>
+        <v>0.71599999999999997</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>0.56100000000000005</v>
+        <v>0.74299999999999999</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>0.41</v>
+        <v>0.72599999999999998</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>0.22500000000000001</v>
+        <v>0.66600000000000004</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>5.5E-2</v>
+        <v>0.56100000000000005</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>0</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>0</v>
+        <v>0.22500000000000001</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
@@ -4943,82 +4939,82 @@
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>2.5000000000000001E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>0.154</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>0.34599999999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>0.51200000000000001</v>
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>0.63400000000000001</v>
+        <v>0.154</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>0.70399999999999996</v>
+        <v>0.34599999999999997</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>0.73599999999999999</v>
+        <v>0.51200000000000001</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>0.71599999999999997</v>
+        <v>0.63400000000000001</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>0.65700000000000003</v>
+        <v>0.70399999999999996</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>0.54500000000000004</v>
+        <v>0.73599999999999999</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>0.39500000000000002</v>
+        <v>0.71599999999999997</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>0.217</v>
+        <v>0.65700000000000003</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>5.5E-2</v>
+        <v>0.54500000000000004</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>0</v>
+        <v>0.39500000000000002</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>0</v>
+        <v>0.217</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>0</v>
+        <v>5.5E-2</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
@@ -5063,82 +5059,82 @@
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>2.4E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>0.151</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>0.34899999999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>0.51400000000000001</v>
+        <v>2.4E-2</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>0.63400000000000001</v>
+        <v>0.151</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>0.71099999999999997</v>
+        <v>0.34899999999999998</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>0.745</v>
+        <v>0.51400000000000001</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>0.73</v>
+        <v>0.63400000000000001</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>0.67</v>
+        <v>0.71099999999999997</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>0.56499999999999995</v>
+        <v>0.745</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>0.41299999999999998</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>0.22700000000000001</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>5.2999999999999999E-2</v>
+        <v>0.56499999999999995</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>0</v>
+        <v>0.41299999999999998</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>0</v>
+        <v>0.22700000000000001</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>0</v>
+        <v>5.2999999999999999E-2</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
@@ -5183,82 +5179,82 @@
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>2.5999999999999999E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>0.14199999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>0.33200000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>0.496</v>
+        <v>2.5999999999999999E-2</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>0.61899999999999999</v>
+        <v>0.14199999999999999</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>0.69899999999999995</v>
+        <v>0.33200000000000002</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>0.74199999999999999</v>
+        <v>0.496</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>0.71899999999999997</v>
+        <v>0.61899999999999999</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>0.65700000000000003</v>
+        <v>0.69899999999999995</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>0.55000000000000004</v>
+        <v>0.74199999999999999</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>0.39900000000000002</v>
+        <v>0.71899999999999997</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231">
-        <v>0.217</v>
+        <v>0.65700000000000003</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232">
-        <v>5.3999999999999999E-2</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233">
-        <v>0</v>
+        <v>0.39900000000000002</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234">
-        <v>0</v>
+        <v>0.217</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235">
-        <v>0</v>
+        <v>5.3999999999999999E-2</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
@@ -5303,82 +5299,82 @@
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244">
-        <v>2.4E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245">
-        <v>0.151</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246">
-        <v>0.34399999999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247">
-        <v>0.51100000000000001</v>
+        <v>2.4E-2</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248">
-        <v>0.627</v>
+        <v>0.151</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249">
-        <v>0.69499999999999995</v>
+        <v>0.34399999999999997</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250">
-        <v>0.72199999999999998</v>
+        <v>0.51100000000000001</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251">
-        <v>0.70399999999999996</v>
+        <v>0.627</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252">
-        <v>0.65300000000000002</v>
+        <v>0.69499999999999995</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253">
-        <v>0.54800000000000004</v>
+        <v>0.72199999999999998</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254">
-        <v>0.39800000000000002</v>
+        <v>0.70399999999999996</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255">
-        <v>0.217</v>
+        <v>0.65300000000000002</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256">
-        <v>5.2999999999999999E-2</v>
+        <v>0.54800000000000004</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257">
-        <v>0</v>
+        <v>0.39800000000000002</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258">
-        <v>0</v>
+        <v>0.217</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259">
-        <v>0</v>
+        <v>5.2999999999999999E-2</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
@@ -5423,82 +5419,82 @@
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268">
-        <v>2.3E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269">
-        <v>0.152</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270">
-        <v>0.34399999999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271">
-        <v>0.50900000000000001</v>
+        <v>2.3E-2</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272">
-        <v>0.629</v>
+        <v>0.152</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273">
-        <v>0.70199999999999996</v>
+        <v>0.34399999999999997</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274">
-        <v>0.73299999999999998</v>
+        <v>0.50900000000000001</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275">
-        <v>0.71799999999999997</v>
+        <v>0.629</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276">
-        <v>0.65800000000000003</v>
+        <v>0.70199999999999996</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277">
-        <v>0.55100000000000005</v>
+        <v>0.73299999999999998</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278">
-        <v>0.4</v>
+        <v>0.71799999999999997</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279">
-        <v>0.217</v>
+        <v>0.65800000000000003</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280">
-        <v>5.1999999999999998E-2</v>
+        <v>0.55100000000000005</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281">
-        <v>0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282">
-        <v>0</v>
+        <v>0.217</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283">
-        <v>0</v>
+        <v>5.1999999999999998E-2</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
@@ -5543,82 +5539,82 @@
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292">
-        <v>2.1999999999999999E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293">
-        <v>0.151</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294">
-        <v>0.33900000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295">
-        <v>0.502</v>
+        <v>2.1999999999999999E-2</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296">
-        <v>0.623</v>
+        <v>0.151</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297">
-        <v>0.69699999999999995</v>
+        <v>0.33900000000000002</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298">
-        <v>0.72299999999999998</v>
+        <v>0.502</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299">
-        <v>0.70799999999999996</v>
+        <v>0.623</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300">
-        <v>0.64700000000000002</v>
+        <v>0.69699999999999995</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301">
-        <v>0.54</v>
+        <v>0.72299999999999998</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302">
-        <v>0.39100000000000001</v>
+        <v>0.70799999999999996</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303">
-        <v>0.21099999999999999</v>
+        <v>0.64700000000000002</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304">
-        <v>5.0999999999999997E-2</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305">
-        <v>0</v>
+        <v>0.39100000000000001</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A306">
-        <v>0</v>
+        <v>0.21099999999999999</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307">
-        <v>0</v>
+        <v>5.0999999999999997E-2</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
@@ -5663,82 +5659,82 @@
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316">
-        <v>0.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317">
-        <v>0.14799999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A318">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A319">
-        <v>0.501</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A320">
-        <v>0.624</v>
+        <v>0.14799999999999999</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A321">
-        <v>0.7</v>
+        <v>0.33500000000000002</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A322">
-        <v>0.72599999999999998</v>
+        <v>0.501</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A323">
-        <v>0.71099999999999997</v>
+        <v>0.624</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A324">
-        <v>0.65100000000000002</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A325">
-        <v>0.54400000000000004</v>
+        <v>0.72599999999999998</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A326">
-        <v>0.39300000000000002</v>
+        <v>0.71099999999999997</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A327">
-        <v>0.21199999999999999</v>
+        <v>0.65100000000000002</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A328">
-        <v>0.05</v>
+        <v>0.54400000000000004</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A329">
-        <v>0</v>
+        <v>0.39300000000000002</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A330">
-        <v>0</v>
+        <v>0.21199999999999999</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A331">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.25">
@@ -5783,82 +5779,82 @@
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A340">
-        <v>1.9E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A341">
-        <v>0.14499999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A342">
-        <v>0.34499999999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A343">
-        <v>0.51500000000000001</v>
+        <v>1.9E-2</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A344">
-        <v>0.63900000000000001</v>
+        <v>0.14499999999999999</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A345">
-        <v>0.71499999999999997</v>
+        <v>0.34499999999999997</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A346">
-        <v>0.745</v>
+        <v>0.51500000000000001</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A347">
-        <v>0.73</v>
+        <v>0.63900000000000001</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A348">
-        <v>0.67</v>
+        <v>0.71499999999999997</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A349">
-        <v>0.56299999999999994</v>
+        <v>0.745</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A350">
-        <v>0.41</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A351">
-        <v>0.223</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A352">
-        <v>4.8000000000000001E-2</v>
+        <v>0.56299999999999994</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A353">
-        <v>0</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A354">
-        <v>0</v>
+        <v>0.223</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A355">
-        <v>0</v>
+        <v>4.8000000000000001E-2</v>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.25">
@@ -5903,82 +5899,82 @@
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A364">
-        <v>1.6E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A365">
-        <v>0.155</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A366">
-        <v>0.35099999999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A367">
-        <v>0.51800000000000002</v>
+        <v>1.6E-2</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A368">
-        <v>0.64200000000000002</v>
+        <v>0.155</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A369">
-        <v>0.71699999999999997</v>
+        <v>0.35099999999999998</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A370">
-        <v>0.746</v>
+        <v>0.51800000000000002</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A371">
-        <v>0.73</v>
+        <v>0.64200000000000002</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A372">
-        <v>0.66900000000000004</v>
+        <v>0.71699999999999997</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A373">
-        <v>0.56200000000000006</v>
+        <v>0.746</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A374">
-        <v>0.40799999999999997</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A375">
-        <v>0.22</v>
+        <v>0.66900000000000004</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A376">
-        <v>4.8000000000000001E-2</v>
+        <v>0.56200000000000006</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A377">
-        <v>0</v>
+        <v>0.40799999999999997</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A378">
-        <v>0</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A379">
-        <v>0</v>
+        <v>4.8000000000000001E-2</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.25">
@@ -6023,82 +6019,82 @@
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A388">
-        <v>1.9E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A389">
-        <v>0.14099999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A390">
-        <v>0.316</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A391">
-        <v>0.46600000000000003</v>
+        <v>1.9E-2</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A392">
-        <v>0.56699999999999995</v>
+        <v>0.14099999999999999</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A393">
-        <v>0.64900000000000002</v>
+        <v>0.316</v>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A394">
-        <v>0.68899999999999995</v>
+        <v>0.46600000000000003</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A395">
-        <v>0.68600000000000005</v>
+        <v>0.56699999999999995</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A396">
-        <v>0.63900000000000001</v>
+        <v>0.64900000000000002</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A397">
-        <v>0.54600000000000004</v>
+        <v>0.68899999999999995</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A398">
-        <v>0.38500000000000001</v>
+        <v>0.68600000000000005</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A399">
-        <v>0.20100000000000001</v>
+        <v>0.63900000000000001</v>
       </c>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A400">
-        <v>4.7E-2</v>
+        <v>0.54600000000000004</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A401">
-        <v>0</v>
+        <v>0.38500000000000001</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A402">
-        <v>0</v>
+        <v>0.20100000000000001</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A403">
-        <v>0</v>
+        <v>4.7E-2</v>
       </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.25">
@@ -6143,82 +6139,82 @@
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A412">
-        <v>1.7000000000000001E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A413">
-        <v>0.14299999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A414">
-        <v>0.34200000000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A415">
-        <v>0.51700000000000002</v>
+        <v>1.7000000000000001E-2</v>
       </c>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A416">
-        <v>0.63800000000000001</v>
+        <v>0.14299999999999999</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A417">
-        <v>0.71299999999999997</v>
+        <v>0.34200000000000003</v>
       </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A418">
-        <v>0.74299999999999999</v>
+        <v>0.51700000000000002</v>
       </c>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A419">
-        <v>0.72699999999999998</v>
+        <v>0.63800000000000001</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A420">
-        <v>0.66600000000000004</v>
+        <v>0.71299999999999997</v>
       </c>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A421">
-        <v>0.55900000000000005</v>
+        <v>0.74299999999999999</v>
       </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A422">
-        <v>0.40600000000000003</v>
+        <v>0.72699999999999998</v>
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A423">
-        <v>0.218</v>
+        <v>0.66600000000000004</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A424">
-        <v>4.5999999999999999E-2</v>
+        <v>0.55900000000000005</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A425">
-        <v>0</v>
+        <v>0.40600000000000003</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A426">
-        <v>0</v>
+        <v>0.218</v>
       </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A427">
-        <v>0</v>
+        <v>4.5999999999999999E-2</v>
       </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.25">
@@ -6263,82 +6259,82 @@
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A436">
-        <v>1.6E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A437">
-        <v>0.14799999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A438">
-        <v>0.34499999999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A439">
-        <v>0.51800000000000002</v>
+        <v>1.6E-2</v>
       </c>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A440">
-        <v>0.64300000000000002</v>
+        <v>0.14799999999999999</v>
       </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A441">
-        <v>0.72199999999999998</v>
+        <v>0.34499999999999997</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A442">
-        <v>0.752</v>
+        <v>0.51800000000000002</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A443">
-        <v>0.73599999999999999</v>
+        <v>0.64300000000000002</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A444">
-        <v>0.67300000000000004</v>
+        <v>0.72199999999999998</v>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A445">
-        <v>0.56399999999999995</v>
+        <v>0.752</v>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A446">
-        <v>0.40899999999999997</v>
+        <v>0.73599999999999999</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A447">
-        <v>0.219</v>
+        <v>0.67300000000000004</v>
       </c>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A448">
-        <v>4.4999999999999998E-2</v>
+        <v>0.56399999999999995</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A449">
-        <v>0</v>
+        <v>0.40899999999999997</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A450">
-        <v>0</v>
+        <v>0.219</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A451">
-        <v>0</v>
+        <v>4.4999999999999998E-2</v>
       </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.25">
@@ -6383,82 +6379,82 @@
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A460">
-        <v>1.4E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A461">
-        <v>0.154</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A462">
-        <v>0.35599999999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A463">
-        <v>0.53100000000000003</v>
+        <v>1.4E-2</v>
       </c>
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A464">
-        <v>0.65500000000000003</v>
+        <v>0.154</v>
       </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A465">
-        <v>0.73</v>
+        <v>0.35599999999999998</v>
       </c>
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A466">
-        <v>0.75600000000000001</v>
+        <v>0.53100000000000003</v>
       </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A467">
-        <v>0.74</v>
+        <v>0.65500000000000003</v>
       </c>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A468">
-        <v>0.67700000000000005</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A469">
-        <v>0.56799999999999995</v>
+        <v>0.75600000000000001</v>
       </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A470">
-        <v>0.41099999999999998</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A471">
-        <v>0.219</v>
+        <v>0.67700000000000005</v>
       </c>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A472">
-        <v>4.3999999999999997E-2</v>
+        <v>0.56799999999999995</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A473">
-        <v>0</v>
+        <v>0.41099999999999998</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A474">
-        <v>0</v>
+        <v>0.219</v>
       </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A475">
-        <v>0</v>
+        <v>4.3999999999999997E-2</v>
       </c>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.25">
@@ -6503,82 +6499,82 @@
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A484">
-        <v>1.4E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A485">
-        <v>0.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A486">
-        <v>0.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A487">
-        <v>0.52100000000000002</v>
+        <v>1.4E-2</v>
       </c>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A488">
-        <v>0.64500000000000002</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A489">
-        <v>0.72199999999999998</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A490">
-        <v>0.753</v>
+        <v>0.52100000000000002</v>
       </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A491">
-        <v>0.73799999999999999</v>
+        <v>0.64500000000000002</v>
       </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A492">
-        <v>0.67700000000000005</v>
+        <v>0.72199999999999998</v>
       </c>
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A493">
-        <v>0.56999999999999995</v>
+        <v>0.753</v>
       </c>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A494">
-        <v>0.41499999999999998</v>
+        <v>0.73799999999999999</v>
       </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A495">
-        <v>0.222</v>
+        <v>0.67700000000000005</v>
       </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A496">
-        <v>4.2000000000000003E-2</v>
+        <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A497">
-        <v>0</v>
+        <v>0.41499999999999998</v>
       </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A498">
-        <v>0</v>
+        <v>0.222</v>
       </c>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A499">
-        <v>0</v>
+        <v>4.2000000000000003E-2</v>
       </c>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.25">
@@ -6623,82 +6619,82 @@
     </row>
     <row r="508" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A508">
-        <v>1.2E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A509">
-        <v>0.155</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A510">
-        <v>0.35399999999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A511">
-        <v>0.52300000000000002</v>
+        <v>1.2E-2</v>
       </c>
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A512">
-        <v>0.64600000000000002</v>
+        <v>0.155</v>
       </c>
     </row>
     <row r="513" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A513">
-        <v>0.72199999999999998</v>
+        <v>0.35399999999999998</v>
       </c>
     </row>
     <row r="514" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A514">
-        <v>0.752</v>
+        <v>0.52300000000000002</v>
       </c>
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A515">
-        <v>0.73699999999999999</v>
+        <v>0.64600000000000002</v>
       </c>
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A516">
-        <v>0.67700000000000005</v>
+        <v>0.72199999999999998</v>
       </c>
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A517">
-        <v>0.56599999999999995</v>
+        <v>0.752</v>
       </c>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A518">
-        <v>0.41</v>
+        <v>0.73699999999999999</v>
       </c>
     </row>
     <row r="519" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A519">
-        <v>0.218</v>
+        <v>0.67700000000000005</v>
       </c>
     </row>
     <row r="520" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A520">
-        <v>4.1000000000000002E-2</v>
+        <v>0.56599999999999995</v>
       </c>
     </row>
     <row r="521" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A521">
-        <v>0</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="522" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A522">
-        <v>0</v>
+        <v>0.218</v>
       </c>
     </row>
     <row r="523" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A523">
-        <v>0</v>
+        <v>4.1000000000000002E-2</v>
       </c>
     </row>
     <row r="524" spans="1:1" x14ac:dyDescent="0.25">
@@ -6743,82 +6739,82 @@
     </row>
     <row r="532" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A532">
-        <v>1.2999999999999999E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A533">
-        <v>0.14899999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="534" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A534">
-        <v>0.34300000000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A535">
-        <v>0.51</v>
+        <v>1.2999999999999999E-2</v>
       </c>
     </row>
     <row r="536" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A536">
-        <v>0.63200000000000001</v>
+        <v>0.14899999999999999</v>
       </c>
     </row>
     <row r="537" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A537">
-        <v>0.70599999999999996</v>
+        <v>0.34300000000000003</v>
       </c>
     </row>
     <row r="538" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A538">
-        <v>0.73899999999999999</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="539" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A539">
-        <v>0.72299999999999998</v>
+        <v>0.63200000000000001</v>
       </c>
     </row>
     <row r="540" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A540">
-        <v>0.66100000000000003</v>
+        <v>0.70599999999999996</v>
       </c>
     </row>
     <row r="541" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A541">
-        <v>0.55400000000000005</v>
+        <v>0.73899999999999999</v>
       </c>
     </row>
     <row r="542" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A542">
-        <v>0.39900000000000002</v>
+        <v>0.72299999999999998</v>
       </c>
     </row>
     <row r="543" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A543">
-        <v>0.21</v>
+        <v>0.66100000000000003</v>
       </c>
     </row>
     <row r="544" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A544">
-        <v>4.1000000000000002E-2</v>
+        <v>0.55400000000000005</v>
       </c>
     </row>
     <row r="545" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A545">
-        <v>0</v>
+        <v>0.39900000000000002</v>
       </c>
     </row>
     <row r="546" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A546">
-        <v>0</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="547" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A547">
-        <v>0</v>
+        <v>4.1000000000000002E-2</v>
       </c>
     </row>
     <row r="548" spans="1:1" x14ac:dyDescent="0.25">
@@ -6863,82 +6859,82 @@
     </row>
     <row r="556" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A556">
-        <v>1.2E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="557" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A557">
-        <v>0.14599999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="558" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A558">
-        <v>0.33900000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="559" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A559">
-        <v>0.50600000000000001</v>
+        <v>1.2E-2</v>
       </c>
     </row>
     <row r="560" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A560">
-        <v>0.627</v>
+        <v>0.14599999999999999</v>
       </c>
     </row>
     <row r="561" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A561">
-        <v>0.70199999999999996</v>
+        <v>0.33900000000000002</v>
       </c>
     </row>
     <row r="562" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A562">
-        <v>0.73599999999999999</v>
+        <v>0.50600000000000001</v>
       </c>
     </row>
     <row r="563" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A563">
-        <v>0.72099999999999997</v>
+        <v>0.627</v>
       </c>
     </row>
     <row r="564" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A564">
-        <v>0.66</v>
+        <v>0.70199999999999996</v>
       </c>
     </row>
     <row r="565" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A565">
-        <v>0.55000000000000004</v>
+        <v>0.73599999999999999</v>
       </c>
     </row>
     <row r="566" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A566">
-        <v>0.39600000000000002</v>
+        <v>0.72099999999999997</v>
       </c>
     </row>
     <row r="567" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A567">
-        <v>0.20799999999999999</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="568" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A568">
-        <v>0.04</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="569" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A569">
-        <v>0</v>
+        <v>0.39600000000000002</v>
       </c>
     </row>
     <row r="570" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A570">
-        <v>0</v>
+        <v>0.20799999999999999</v>
       </c>
     </row>
     <row r="571" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A571">
-        <v>0</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="572" spans="1:1" x14ac:dyDescent="0.25">
@@ -6983,82 +6979,82 @@
     </row>
     <row r="580" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A580">
-        <v>1.2E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="581" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A581">
-        <v>0.14399999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="582" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A582">
-        <v>0.33800000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="583" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A583">
-        <v>0.505</v>
+        <v>1.2E-2</v>
       </c>
     </row>
     <row r="584" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A584">
-        <v>0.627</v>
+        <v>0.14399999999999999</v>
       </c>
     </row>
     <row r="585" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A585">
-        <v>0.70099999999999996</v>
+        <v>0.33800000000000002</v>
       </c>
     </row>
     <row r="586" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A586">
-        <v>0.73699999999999999</v>
+        <v>0.505</v>
       </c>
     </row>
     <row r="587" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A587">
-        <v>0.72199999999999998</v>
+        <v>0.627</v>
       </c>
     </row>
     <row r="588" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A588">
-        <v>0.66200000000000003</v>
+        <v>0.70099999999999996</v>
       </c>
     </row>
     <row r="589" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A589">
-        <v>0.55600000000000005</v>
+        <v>0.73699999999999999</v>
       </c>
     </row>
     <row r="590" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A590">
-        <v>0.40200000000000002</v>
+        <v>0.72199999999999998</v>
       </c>
     </row>
     <row r="591" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A591">
-        <v>0.21299999999999999</v>
+        <v>0.66200000000000003</v>
       </c>
     </row>
     <row r="592" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A592">
-        <v>3.9E-2</v>
+        <v>0.55600000000000005</v>
       </c>
     </row>
     <row r="593" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A593">
-        <v>0</v>
+        <v>0.40200000000000002</v>
       </c>
     </row>
     <row r="594" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A594">
-        <v>0</v>
+        <v>0.21299999999999999</v>
       </c>
     </row>
     <row r="595" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A595">
-        <v>0</v>
+        <v>3.9E-2</v>
       </c>
     </row>
     <row r="596" spans="1:1" x14ac:dyDescent="0.25">
@@ -7103,82 +7099,82 @@
     </row>
     <row r="604" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A604">
-        <v>1.0999999999999999E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="605" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A605">
-        <v>0.151</v>
+        <v>0</v>
       </c>
     </row>
     <row r="606" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A606">
-        <v>0.34799999999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="607" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A607">
-        <v>0.51600000000000001</v>
+        <v>1.0999999999999999E-2</v>
       </c>
     </row>
     <row r="608" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A608">
-        <v>0.63800000000000001</v>
+        <v>0.151</v>
       </c>
     </row>
     <row r="609" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A609">
-        <v>0.71299999999999997</v>
+        <v>0.34799999999999998</v>
       </c>
     </row>
     <row r="610" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A610">
-        <v>0.74399999999999999</v>
+        <v>0.51600000000000001</v>
       </c>
     </row>
     <row r="611" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A611">
-        <v>0.72699999999999998</v>
+        <v>0.63800000000000001</v>
       </c>
     </row>
     <row r="612" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A612">
-        <v>0.66500000000000004</v>
+        <v>0.71299999999999997</v>
       </c>
     </row>
     <row r="613" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A613">
-        <v>0.55600000000000005</v>
+        <v>0.74399999999999999</v>
       </c>
     </row>
     <row r="614" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A614">
-        <v>0.4</v>
+        <v>0.72699999999999998</v>
       </c>
     </row>
     <row r="615" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A615">
-        <v>0.20899999999999999</v>
+        <v>0.66500000000000004</v>
       </c>
     </row>
     <row r="616" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A616">
-        <v>3.7999999999999999E-2</v>
+        <v>0.55600000000000005</v>
       </c>
     </row>
     <row r="617" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A617">
-        <v>0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="618" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A618">
-        <v>0</v>
+        <v>0.20899999999999999</v>
       </c>
     </row>
     <row r="619" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A619">
-        <v>0</v>
+        <v>3.7999999999999999E-2</v>
       </c>
     </row>
     <row r="620" spans="1:1" x14ac:dyDescent="0.25">
@@ -7223,82 +7219,82 @@
     </row>
     <row r="628" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A628">
-        <v>1.0999999999999999E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="629" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A629">
-        <v>0.14799999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="630" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A630">
-        <v>0.34399999999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="631" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A631">
-        <v>0.51400000000000001</v>
+        <v>1.0999999999999999E-2</v>
       </c>
     </row>
     <row r="632" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A632">
-        <v>0.63600000000000001</v>
+        <v>0.14799999999999999</v>
       </c>
     </row>
     <row r="633" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A633">
-        <v>0.71099999999999997</v>
+        <v>0.34399999999999997</v>
       </c>
     </row>
     <row r="634" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A634">
-        <v>0.73799999999999999</v>
+        <v>0.51400000000000001</v>
       </c>
     </row>
     <row r="635" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A635">
-        <v>0.72</v>
+        <v>0.63600000000000001</v>
       </c>
     </row>
     <row r="636" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A636">
-        <v>0.65600000000000003</v>
+        <v>0.71099999999999997</v>
       </c>
     </row>
     <row r="637" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A637">
-        <v>0.55000000000000004</v>
+        <v>0.73799999999999999</v>
       </c>
     </row>
     <row r="638" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A638">
-        <v>0.39100000000000001</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="639" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A639">
-        <v>0.2</v>
+        <v>0.65600000000000003</v>
       </c>
     </row>
     <row r="640" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A640">
-        <v>3.5999999999999997E-2</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="641" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A641">
-        <v>0</v>
+        <v>0.39100000000000001</v>
       </c>
     </row>
     <row r="642" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A642">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="643" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A643">
-        <v>0</v>
+        <v>3.5999999999999997E-2</v>
       </c>
     </row>
     <row r="644" spans="1:1" x14ac:dyDescent="0.25">
@@ -7343,82 +7339,82 @@
     </row>
     <row r="652" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A652">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="653" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A653">
-        <v>0.13500000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="654" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A654">
-        <v>0.32500000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="655" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A655">
-        <v>0.495</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="656" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A656">
-        <v>0.62</v>
+        <v>0.13500000000000001</v>
       </c>
     </row>
     <row r="657" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A657">
-        <v>0.69699999999999995</v>
+        <v>0.32500000000000001</v>
       </c>
     </row>
     <row r="658" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A658">
-        <v>0.73</v>
+        <v>0.495</v>
       </c>
     </row>
     <row r="659" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A659">
-        <v>0.70899999999999996</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="660" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A660">
-        <v>0.64400000000000002</v>
+        <v>0.69699999999999995</v>
       </c>
     </row>
     <row r="661" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A661">
-        <v>0.53300000000000003</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="662" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A662">
-        <v>0.373</v>
+        <v>0.70899999999999996</v>
       </c>
     </row>
     <row r="663" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A663">
-        <v>0.189</v>
+        <v>0.64400000000000002</v>
       </c>
     </row>
     <row r="664" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A664">
-        <v>3.5000000000000003E-2</v>
+        <v>0.53300000000000003</v>
       </c>
     </row>
     <row r="665" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A665">
-        <v>0</v>
+        <v>0.373</v>
       </c>
     </row>
     <row r="666" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A666">
-        <v>0</v>
+        <v>0.189</v>
       </c>
     </row>
     <row r="667" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A667">
-        <v>0</v>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="668" spans="1:1" x14ac:dyDescent="0.25">
@@ -7463,82 +7459,82 @@
     </row>
     <row r="676" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A676">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="677" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A677">
-        <v>0.13500000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="678" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A678">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="679" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A679">
-        <v>0.505</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="680" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A680">
-        <v>0.628</v>
+        <v>0.13500000000000001</v>
       </c>
     </row>
     <row r="681" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A681">
-        <v>0.70499999999999996</v>
+        <v>0.33500000000000002</v>
       </c>
     </row>
     <row r="682" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A682">
-        <v>0.73399999999999999</v>
+        <v>0.505</v>
       </c>
     </row>
     <row r="683" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A683">
-        <v>0.71599999999999997</v>
+        <v>0.628</v>
       </c>
     </row>
     <row r="684" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A684">
-        <v>0.64900000000000002</v>
+        <v>0.70499999999999996</v>
       </c>
     </row>
     <row r="685" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A685">
-        <v>0.53600000000000003</v>
+        <v>0.73399999999999999</v>
       </c>
     </row>
     <row r="686" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A686">
-        <v>0.376</v>
+        <v>0.71599999999999997</v>
       </c>
     </row>
     <row r="687" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A687">
-        <v>0.184</v>
+        <v>0.64900000000000002</v>
       </c>
     </row>
     <row r="688" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A688">
-        <v>3.2000000000000001E-2</v>
+        <v>0.53600000000000003</v>
       </c>
     </row>
     <row r="689" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A689">
-        <v>0</v>
+        <v>0.376</v>
       </c>
     </row>
     <row r="690" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A690">
-        <v>0</v>
+        <v>0.184</v>
       </c>
     </row>
     <row r="691" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A691">
-        <v>0</v>
+        <v>3.2000000000000001E-2</v>
       </c>
     </row>
     <row r="692" spans="1:1" x14ac:dyDescent="0.25">
@@ -7583,82 +7579,82 @@
     </row>
     <row r="700" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A700">
-        <v>8.9999999999999993E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="701" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A701">
-        <v>0.13500000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="702" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A702">
-        <v>0.32900000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="703" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A703">
-        <v>0.501</v>
+        <v>8.9999999999999993E-3</v>
       </c>
     </row>
     <row r="704" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A704">
-        <v>0.627</v>
+        <v>0.13500000000000001</v>
       </c>
     </row>
     <row r="705" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A705">
-        <v>0.70499999999999996</v>
+        <v>0.32900000000000001</v>
       </c>
     </row>
     <row r="706" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A706">
-        <v>0.74399999999999999</v>
+        <v>0.501</v>
       </c>
     </row>
     <row r="707" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A707">
-        <v>0.72899999999999998</v>
+        <v>0.627</v>
       </c>
     </row>
     <row r="708" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A708">
-        <v>0.66700000000000004</v>
+        <v>0.70499999999999996</v>
       </c>
     </row>
     <row r="709" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A709">
-        <v>0.55200000000000005</v>
+        <v>0.74399999999999999</v>
       </c>
     </row>
     <row r="710" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A710">
-        <v>0.39300000000000002</v>
+        <v>0.72899999999999998</v>
       </c>
     </row>
     <row r="711" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A711">
-        <v>0.20200000000000001</v>
+        <v>0.66700000000000004</v>
       </c>
     </row>
     <row r="712" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A712">
-        <v>3.4000000000000002E-2</v>
+        <v>0.55200000000000005</v>
       </c>
     </row>
     <row r="713" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A713">
-        <v>0</v>
+        <v>0.39300000000000002</v>
       </c>
     </row>
     <row r="714" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A714">
-        <v>0</v>
+        <v>0.20200000000000001</v>
       </c>
     </row>
     <row r="715" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A715">
-        <v>0</v>
+        <v>3.4000000000000002E-2</v>
       </c>
     </row>
     <row r="716" spans="1:1" x14ac:dyDescent="0.25">
@@ -7703,82 +7699,82 @@
     </row>
     <row r="724" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A724">
-        <v>8.9999999999999993E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="725" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A725">
-        <v>0.13400000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="726" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A726">
-        <v>0.33400000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="727" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A727">
-        <v>0.51100000000000001</v>
+        <v>8.9999999999999993E-3</v>
       </c>
     </row>
     <row r="728" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A728">
-        <v>0.63700000000000001</v>
+        <v>0.13400000000000001</v>
       </c>
     </row>
     <row r="729" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A729">
-        <v>0.71499999999999997</v>
+        <v>0.33400000000000002</v>
       </c>
     </row>
     <row r="730" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A730">
-        <v>0.75</v>
+        <v>0.51100000000000001</v>
       </c>
     </row>
     <row r="731" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A731">
-        <v>0.73399999999999999</v>
+        <v>0.63700000000000001</v>
       </c>
     </row>
     <row r="732" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A732">
-        <v>0.66600000000000004</v>
+        <v>0.71499999999999997</v>
       </c>
     </row>
     <row r="733" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A733">
-        <v>0.54700000000000004</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="734" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A734">
-        <v>0.38500000000000001</v>
+        <v>0.73399999999999999</v>
       </c>
     </row>
     <row r="735" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A735">
-        <v>0.193</v>
+        <v>0.66600000000000004</v>
       </c>
     </row>
     <row r="736" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A736">
-        <v>3.2000000000000001E-2</v>
+        <v>0.54700000000000004</v>
       </c>
     </row>
     <row r="737" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A737">
-        <v>0</v>
+        <v>0.38500000000000001</v>
       </c>
     </row>
     <row r="738" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A738">
-        <v>0</v>
+        <v>0.193</v>
       </c>
     </row>
     <row r="739" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A739">
-        <v>0</v>
+        <v>3.2000000000000001E-2</v>
       </c>
     </row>
     <row r="740" spans="1:1" x14ac:dyDescent="0.25">
@@ -7815,8 +7811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EC6D895-CCC6-45A0-9E80-76E08656C248}">
   <dimension ref="A1:A720"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A720"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7838,82 +7834,82 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>8.0000000000000002E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.13800000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0.33500000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0.50700000000000001</v>
+        <v>8.0000000000000002E-3</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>0.63200000000000001</v>
+        <v>0.13800000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>0.71</v>
+        <v>0.33500000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>0.747</v>
+        <v>0.50700000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>0.73099999999999998</v>
+        <v>0.63200000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>0.66800000000000004</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>0.55800000000000005</v>
+        <v>0.747</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>0.39800000000000002</v>
+        <v>0.73099999999999998</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>0.20399999999999999</v>
+        <v>0.66800000000000004</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>3.1E-2</v>
+        <v>0.55800000000000005</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>0</v>
+        <v>0.39800000000000002</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>0</v>
+        <v>0.20399999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>0</v>
+        <v>3.1E-2</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
@@ -7958,82 +7954,82 @@
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>7.0000000000000001E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>0.14299999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>0.34399999999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>0.51900000000000002</v>
+        <v>7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>0.64500000000000002</v>
+        <v>0.14299999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>0.72199999999999998</v>
+        <v>0.34399999999999997</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>0.75700000000000001</v>
+        <v>0.51900000000000002</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>0.74099999999999999</v>
+        <v>0.64500000000000002</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>0.67800000000000005</v>
+        <v>0.72199999999999998</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>0.56799999999999995</v>
+        <v>0.75700000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>0.40699999999999997</v>
+        <v>0.74099999999999999</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>0.20799999999999999</v>
+        <v>0.67800000000000005</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>0.03</v>
+        <v>0.56799999999999995</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>0</v>
+        <v>0.40699999999999997</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>0</v>
+        <v>0.20799999999999999</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>0</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
@@ -8078,82 +8074,82 @@
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>7.0000000000000001E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>0.14099999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>0.34799999999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>0.52500000000000002</v>
+        <v>7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>0.65300000000000002</v>
+        <v>0.14099999999999999</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>0.73</v>
+        <v>0.34799999999999998</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>0.76300000000000001</v>
+        <v>0.52500000000000002</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>0.747</v>
+        <v>0.65300000000000002</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>0.68300000000000005</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>0.56399999999999995</v>
+        <v>0.76300000000000001</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>0.39900000000000002</v>
+        <v>0.747</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>0.20399999999999999</v>
+        <v>0.68300000000000005</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>0.03</v>
+        <v>0.56399999999999995</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>0</v>
+        <v>0.39900000000000002</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>0</v>
+        <v>0.20399999999999999</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>0</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
@@ -8198,82 +8194,82 @@
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>7.0000000000000001E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>0.124</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>0.30199999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>0.50800000000000001</v>
+        <v>7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>0.64100000000000001</v>
+        <v>0.124</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>0.71799999999999997</v>
+        <v>0.30199999999999999</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>0.755</v>
+        <v>0.50800000000000001</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>0.72899999999999998</v>
+        <v>0.64100000000000001</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>0.66500000000000004</v>
+        <v>0.71799999999999997</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>0.55300000000000005</v>
+        <v>0.755</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>0.39</v>
+        <v>0.72899999999999998</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>0.19600000000000001</v>
+        <v>0.66500000000000004</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>2.8000000000000001E-2</v>
+        <v>0.55300000000000005</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>0</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>0</v>
+        <v>0.19600000000000001</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>0</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
@@ -8318,82 +8314,82 @@
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>6.0000000000000001E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>0.114</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>0.28999999999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>0.48199999999999998</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>0.63400000000000001</v>
+        <v>0.114</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>0.71499999999999997</v>
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>0.753</v>
+        <v>0.48199999999999998</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>0.73499999999999999</v>
+        <v>0.63400000000000001</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>0.67100000000000004</v>
+        <v>0.71499999999999997</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>0.55900000000000005</v>
+        <v>0.753</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>0.39500000000000002</v>
+        <v>0.73499999999999999</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>0.19800000000000001</v>
+        <v>0.67100000000000004</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>2.5000000000000001E-2</v>
+        <v>0.55900000000000005</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>0</v>
+        <v>0.39500000000000002</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>0</v>
+        <v>0.19800000000000001</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>0</v>
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
@@ -8438,82 +8434,82 @@
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>5.0000000000000001E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>0.13900000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>0.34399999999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>0.51500000000000001</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>0.64700000000000002</v>
+        <v>0.13900000000000001</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>0.73399999999999999</v>
+        <v>0.34399999999999997</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>0.76300000000000001</v>
+        <v>0.51500000000000001</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>0.747</v>
+        <v>0.64700000000000002</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>0.68400000000000005</v>
+        <v>0.73399999999999999</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>0.57099999999999995</v>
+        <v>0.76300000000000001</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>0.40799999999999997</v>
+        <v>0.747</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>0.20699999999999999</v>
+        <v>0.68400000000000005</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>2.4E-2</v>
+        <v>0.57099999999999995</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>0</v>
+        <v>0.40799999999999997</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>0</v>
+        <v>0.20699999999999999</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>0</v>
+        <v>2.4E-2</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
@@ -8558,82 +8554,82 @@
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>5.0000000000000001E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>0.121</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>0.308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>0.49</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>0.61799999999999999</v>
+        <v>0.121</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>0.70199999999999996</v>
+        <v>0.308</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>0.745</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>0.74199999999999999</v>
+        <v>0.61799999999999999</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>0.67700000000000005</v>
+        <v>0.70199999999999996</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>0.56399999999999995</v>
+        <v>0.745</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>0.4</v>
+        <v>0.74199999999999999</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>0.19900000000000001</v>
+        <v>0.67700000000000005</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>2.4E-2</v>
+        <v>0.56399999999999995</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>0</v>
+        <v>0.19900000000000001</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>0</v>
+        <v>2.4E-2</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
@@ -8678,82 +8674,82 @@
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>4.0000000000000001E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>0.11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>0.29399999999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>0.47199999999999998</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>0.61799999999999999</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>0.69799999999999995</v>
+        <v>0.29399999999999998</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>0.73499999999999999</v>
+        <v>0.47199999999999998</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>0.72499999999999998</v>
+        <v>0.61799999999999999</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>0.66200000000000003</v>
+        <v>0.69799999999999995</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>0.54800000000000004</v>
+        <v>0.73499999999999999</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>0.38500000000000001</v>
+        <v>0.72499999999999998</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>0.189</v>
+        <v>0.66200000000000003</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>2.1999999999999999E-2</v>
+        <v>0.54800000000000004</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>0</v>
+        <v>0.38500000000000001</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>0</v>
+        <v>0.189</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>0</v>
+        <v>2.1999999999999999E-2</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
@@ -8798,82 +8794,82 @@
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>4.0000000000000001E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>0.13300000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>0.33700000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>0.51300000000000001</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>0.64</v>
+        <v>0.13300000000000001</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>0.71699999999999997</v>
+        <v>0.33700000000000002</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>0.75</v>
+        <v>0.51300000000000001</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>0.73299999999999998</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>0.67</v>
+        <v>0.71699999999999997</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>0.55700000000000005</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>0.39300000000000002</v>
+        <v>0.73299999999999998</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>0.19400000000000001</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>2.1999999999999999E-2</v>
+        <v>0.55700000000000005</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>0</v>
+        <v>0.39300000000000002</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>0</v>
+        <v>0.19400000000000001</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>0</v>
+        <v>2.1999999999999999E-2</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
@@ -8918,82 +8914,82 @@
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>4.0000000000000001E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>0.13800000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>0.34699999999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>0.52300000000000002</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>0.65</v>
+        <v>0.13800000000000001</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>0.72799999999999998</v>
+        <v>0.34699999999999998</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>0.75800000000000001</v>
+        <v>0.52300000000000002</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>0.74099999999999999</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>0.67600000000000005</v>
+        <v>0.72799999999999998</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>0.55800000000000005</v>
+        <v>0.75800000000000001</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>0.39200000000000002</v>
+        <v>0.74099999999999999</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231">
-        <v>0.192</v>
+        <v>0.67600000000000005</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232">
-        <v>2.1000000000000001E-2</v>
+        <v>0.55800000000000005</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233">
-        <v>0</v>
+        <v>0.39200000000000002</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234">
-        <v>0</v>
+        <v>0.192</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235">
-        <v>0</v>
+        <v>2.1000000000000001E-2</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
@@ -9038,82 +9034,82 @@
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244">
-        <v>3.0000000000000001E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245">
-        <v>0.122</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246">
-        <v>0.32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247">
-        <v>0.497</v>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248">
-        <v>0.63600000000000001</v>
+        <v>0.122</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249">
-        <v>0.70899999999999996</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250">
-        <v>0.73299999999999998</v>
+        <v>0.497</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251">
-        <v>0.71899999999999997</v>
+        <v>0.63600000000000001</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252">
-        <v>0.65400000000000003</v>
+        <v>0.70899999999999996</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253">
-        <v>0.53900000000000003</v>
+        <v>0.73299999999999998</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254">
-        <v>0.377</v>
+        <v>0.71899999999999997</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255">
-        <v>0.184</v>
+        <v>0.65400000000000003</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256">
-        <v>0.02</v>
+        <v>0.53900000000000003</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257">
-        <v>0</v>
+        <v>0.377</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258">
-        <v>0</v>
+        <v>0.184</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259">
-        <v>0</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
@@ -9158,82 +9154,82 @@
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268">
-        <v>3.0000000000000001E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269">
-        <v>0.13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270">
-        <v>0.33100000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271">
-        <v>0.51800000000000002</v>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272">
-        <v>0.64900000000000002</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273">
-        <v>0.72799999999999998</v>
+        <v>0.33100000000000002</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274">
-        <v>0.75800000000000001</v>
+        <v>0.51800000000000002</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275">
-        <v>0.74099999999999999</v>
+        <v>0.64900000000000002</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276">
-        <v>0.67600000000000005</v>
+        <v>0.72799999999999998</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277">
-        <v>0.56399999999999995</v>
+        <v>0.75800000000000001</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278">
-        <v>0.39900000000000002</v>
+        <v>0.74099999999999999</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279">
-        <v>0.19500000000000001</v>
+        <v>0.67600000000000005</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280">
-        <v>1.9E-2</v>
+        <v>0.56399999999999995</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281">
-        <v>0</v>
+        <v>0.39900000000000002</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282">
-        <v>0</v>
+        <v>0.19500000000000001</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283">
-        <v>0</v>
+        <v>1.9E-2</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
@@ -9278,82 +9274,82 @@
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292">
-        <v>3.0000000000000001E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293">
-        <v>0.123</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294">
-        <v>0.32900000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295">
-        <v>0.52</v>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296">
-        <v>0.65</v>
+        <v>0.123</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297">
-        <v>0.72799999999999998</v>
+        <v>0.32900000000000001</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298">
-        <v>0.75800000000000001</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299">
-        <v>0.73499999999999999</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300">
-        <v>0.66800000000000004</v>
+        <v>0.72799999999999998</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301">
-        <v>0.54300000000000004</v>
+        <v>0.75800000000000001</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302">
-        <v>0.377</v>
+        <v>0.73499999999999999</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303">
-        <v>0.18</v>
+        <v>0.66800000000000004</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304">
-        <v>1.7999999999999999E-2</v>
+        <v>0.54300000000000004</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305">
-        <v>0</v>
+        <v>0.377</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A306">
-        <v>0</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307">
-        <v>0</v>
+        <v>1.7999999999999999E-2</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
@@ -9398,82 +9394,82 @@
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316">
-        <v>2E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317">
-        <v>0.11600000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A318">
-        <v>0.309</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A319">
-        <v>0.50600000000000001</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A320">
-        <v>0.64500000000000002</v>
+        <v>0.11600000000000001</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A321">
-        <v>0.71899999999999997</v>
+        <v>0.309</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A322">
-        <v>0.74099999999999999</v>
+        <v>0.50600000000000001</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A323">
-        <v>0.72099999999999997</v>
+        <v>0.64500000000000002</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A324">
-        <v>0.64900000000000002</v>
+        <v>0.71899999999999997</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A325">
-        <v>0.53800000000000003</v>
+        <v>0.74099999999999999</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A326">
-        <v>0.371</v>
+        <v>0.72099999999999997</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A327">
-        <v>0.17</v>
+        <v>0.64900000000000002</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A328">
-        <v>1.6E-2</v>
+        <v>0.53800000000000003</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A329">
-        <v>0</v>
+        <v>0.371</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A330">
-        <v>0</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A331">
-        <v>0</v>
+        <v>1.6E-2</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.25">
@@ -9518,82 +9514,82 @@
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A340">
-        <v>2E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A341">
-        <v>0.124</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A342">
-        <v>0.33300000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A343">
-        <v>0.51800000000000002</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A344">
-        <v>0.64600000000000002</v>
+        <v>0.124</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A345">
-        <v>0.72299999999999998</v>
+        <v>0.33300000000000002</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A346">
-        <v>0.746</v>
+        <v>0.51800000000000002</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A347">
-        <v>0.72599999999999998</v>
+        <v>0.64600000000000002</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A348">
-        <v>0.65800000000000003</v>
+        <v>0.72299999999999998</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A349">
-        <v>0.54100000000000004</v>
+        <v>0.746</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A350">
-        <v>0.377</v>
+        <v>0.72599999999999998</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A351">
-        <v>0.17799999999999999</v>
+        <v>0.65800000000000003</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A352">
-        <v>1.6E-2</v>
+        <v>0.54100000000000004</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A353">
-        <v>0</v>
+        <v>0.377</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A354">
-        <v>0</v>
+        <v>0.17799999999999999</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A355">
-        <v>0</v>
+        <v>1.6E-2</v>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.25">
@@ -9638,82 +9634,82 @@
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A364">
-        <v>2E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A365">
-        <v>0.112</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A366">
-        <v>0.32600000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A367">
-        <v>0.50800000000000001</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A368">
-        <v>0.64900000000000002</v>
+        <v>0.112</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A369">
-        <v>0.72699999999999998</v>
+        <v>0.32600000000000001</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A370">
-        <v>0.75900000000000001</v>
+        <v>0.50800000000000001</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A371">
-        <v>0.74</v>
+        <v>0.64900000000000002</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A372">
-        <v>0.67400000000000004</v>
+        <v>0.72699999999999998</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A373">
-        <v>0.55800000000000005</v>
+        <v>0.75900000000000001</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A374">
-        <v>0.39</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A375">
-        <v>0.184</v>
+        <v>0.67400000000000004</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A376">
-        <v>1.4999999999999999E-2</v>
+        <v>0.55800000000000005</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A377">
-        <v>0</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A378">
-        <v>0</v>
+        <v>0.184</v>
       </c>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A379">
-        <v>0</v>
+        <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.25">
@@ -9758,82 +9754,82 @@
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A388">
-        <v>2E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A389">
-        <v>0.127</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A390">
-        <v>0.33700000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A391">
-        <v>0.52</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A392">
-        <v>0.65200000000000002</v>
+        <v>0.127</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A393">
-        <v>0.73299999999999998</v>
+        <v>0.33700000000000002</v>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A394">
-        <v>0.77100000000000002</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A395">
-        <v>0.755</v>
+        <v>0.65200000000000002</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A396">
-        <v>0.69099999999999995</v>
+        <v>0.73299999999999998</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A397">
-        <v>0.57799999999999996</v>
+        <v>0.77100000000000002</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A398">
-        <v>0.41099999999999998</v>
+        <v>0.755</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A399">
-        <v>0.20200000000000001</v>
+        <v>0.69099999999999995</v>
       </c>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A400">
-        <v>1.6E-2</v>
+        <v>0.57799999999999996</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A401">
-        <v>0</v>
+        <v>0.41099999999999998</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A402">
-        <v>0</v>
+        <v>0.20200000000000001</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A403">
-        <v>0</v>
+        <v>1.6E-2</v>
       </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.25">
@@ -9878,82 +9874,82 @@
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A412">
-        <v>2E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A413">
-        <v>0.13700000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A414">
-        <v>0.35199999999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A415">
-        <v>0.53200000000000003</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A416">
-        <v>0.66</v>
+        <v>0.13700000000000001</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A417">
-        <v>0.73499999999999999</v>
+        <v>0.35199999999999998</v>
       </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A418">
-        <v>0.76300000000000001</v>
+        <v>0.53200000000000003</v>
       </c>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A419">
-        <v>0.74199999999999999</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A420">
-        <v>0.67400000000000004</v>
+        <v>0.73499999999999999</v>
       </c>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A421">
-        <v>0.55700000000000005</v>
+        <v>0.76300000000000001</v>
       </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A422">
-        <v>0.38800000000000001</v>
+        <v>0.74199999999999999</v>
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A423">
-        <v>0.18099999999999999</v>
+        <v>0.67400000000000004</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A424">
-        <v>1.4E-2</v>
+        <v>0.55700000000000005</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A425">
-        <v>0</v>
+        <v>0.38800000000000001</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A426">
-        <v>0</v>
+        <v>0.18099999999999999</v>
       </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A427">
-        <v>0</v>
+        <v>1.4E-2</v>
       </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.25">
@@ -9998,82 +9994,82 @@
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A436">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A437">
-        <v>0.112</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A438">
-        <v>0.314</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A439">
-        <v>0.49299999999999999</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A440">
-        <v>0.623</v>
+        <v>0.112</v>
       </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A441">
-        <v>0.70199999999999996</v>
+        <v>0.314</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A442">
-        <v>0.74099999999999999</v>
+        <v>0.49299999999999999</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A443">
-        <v>0.72199999999999998</v>
+        <v>0.623</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A444">
-        <v>0.65500000000000003</v>
+        <v>0.70199999999999996</v>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A445">
-        <v>0.54200000000000004</v>
+        <v>0.74099999999999999</v>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A446">
-        <v>0.373</v>
+        <v>0.72199999999999998</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A447">
-        <v>0.16800000000000001</v>
+        <v>0.65500000000000003</v>
       </c>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A448">
-        <v>1.2E-2</v>
+        <v>0.54200000000000004</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A449">
-        <v>0</v>
+        <v>0.373</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A450">
-        <v>0</v>
+        <v>0.16800000000000001</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A451">
-        <v>0</v>
+        <v>1.2E-2</v>
       </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.25">
@@ -10123,77 +10119,77 @@
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A461">
-        <v>0.10299999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A462">
-        <v>0.30399999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A463">
-        <v>0.48899999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A464">
-        <v>0.625</v>
+        <v>0.10299999999999999</v>
       </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A465">
-        <v>0.70899999999999996</v>
+        <v>0.30399999999999999</v>
       </c>
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A466">
-        <v>0.748</v>
+        <v>0.48899999999999999</v>
       </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A467">
-        <v>0.73099999999999998</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A468">
-        <v>0.66400000000000003</v>
+        <v>0.70899999999999996</v>
       </c>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A469">
-        <v>0.54700000000000004</v>
+        <v>0.748</v>
       </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A470">
-        <v>0.379</v>
+        <v>0.73099999999999998</v>
       </c>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A471">
-        <v>0.17399999999999999</v>
+        <v>0.66400000000000003</v>
       </c>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A472">
-        <v>1.2E-2</v>
+        <v>0.54700000000000004</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A473">
-        <v>0</v>
+        <v>0.379</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A474">
-        <v>0</v>
+        <v>0.17399999999999999</v>
       </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A475">
-        <v>0</v>
+        <v>1.2E-2</v>
       </c>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.25">
@@ -10238,82 +10234,82 @@
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A484">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A485">
-        <v>0.114</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A486">
-        <v>0.32400000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A487">
-        <v>0.51600000000000001</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A488">
-        <v>0.64900000000000002</v>
+        <v>0.114</v>
       </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A489">
-        <v>0.73</v>
+        <v>0.32400000000000001</v>
       </c>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A490">
-        <v>0.77600000000000002</v>
+        <v>0.51600000000000001</v>
       </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A491">
-        <v>0.76</v>
+        <v>0.64900000000000002</v>
       </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A492">
-        <v>0.69899999999999995</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A493">
-        <v>0.57699999999999996</v>
+        <v>0.77600000000000002</v>
       </c>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A494">
-        <v>0.40300000000000002</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A495">
-        <v>0.188</v>
+        <v>0.69899999999999995</v>
       </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A496">
-        <v>1.2E-2</v>
+        <v>0.57699999999999996</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A497">
-        <v>0</v>
+        <v>0.40300000000000002</v>
       </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A498">
-        <v>0</v>
+        <v>0.188</v>
       </c>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A499">
-        <v>0</v>
+        <v>1.2E-2</v>
       </c>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.25">
@@ -10363,77 +10359,77 @@
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A509">
-        <v>0.11799999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A510">
-        <v>0.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A511">
-        <v>0.51200000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A512">
-        <v>0.64400000000000002</v>
+        <v>0.11799999999999999</v>
       </c>
     </row>
     <row r="513" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A513">
-        <v>0.72399999999999998</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="514" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A514">
-        <v>0.75700000000000001</v>
+        <v>0.51200000000000001</v>
       </c>
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A515">
-        <v>0.73899999999999999</v>
+        <v>0.64400000000000002</v>
       </c>
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A516">
-        <v>0.67400000000000004</v>
+        <v>0.72399999999999998</v>
       </c>
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A517">
-        <v>0.55500000000000005</v>
+        <v>0.75700000000000001</v>
       </c>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A518">
-        <v>0.38800000000000001</v>
+        <v>0.73899999999999999</v>
       </c>
     </row>
     <row r="519" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A519">
-        <v>0.18099999999999999</v>
+        <v>0.67400000000000004</v>
       </c>
     </row>
     <row r="520" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A520">
-        <v>1.0999999999999999E-2</v>
+        <v>0.55500000000000005</v>
       </c>
     </row>
     <row r="521" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A521">
-        <v>0</v>
+        <v>0.38800000000000001</v>
       </c>
     </row>
     <row r="522" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A522">
-        <v>0</v>
+        <v>0.18099999999999999</v>
       </c>
     </row>
     <row r="523" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A523">
-        <v>0</v>
+        <v>1.0999999999999999E-2</v>
       </c>
     </row>
     <row r="524" spans="1:1" x14ac:dyDescent="0.25">
@@ -10483,77 +10479,77 @@
     </row>
     <row r="533" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A533">
-        <v>0.128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="534" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A534">
-        <v>0.34799999999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A535">
-        <v>0.53300000000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A536">
-        <v>0.66500000000000004</v>
+        <v>0.128</v>
       </c>
     </row>
     <row r="537" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A537">
-        <v>0.746</v>
+        <v>0.34799999999999998</v>
       </c>
     </row>
     <row r="538" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A538">
-        <v>0.77900000000000003</v>
+        <v>0.53300000000000003</v>
       </c>
     </row>
     <row r="539" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A539">
-        <v>0.76200000000000001</v>
+        <v>0.66500000000000004</v>
       </c>
     </row>
     <row r="540" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A540">
-        <v>0.69699999999999995</v>
+        <v>0.746</v>
       </c>
     </row>
     <row r="541" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A541">
-        <v>0.57999999999999996</v>
+        <v>0.77900000000000003</v>
       </c>
     </row>
     <row r="542" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A542">
-        <v>0.41</v>
+        <v>0.76200000000000001</v>
       </c>
     </row>
     <row r="543" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A543">
-        <v>0.19500000000000001</v>
+        <v>0.69699999999999995</v>
       </c>
     </row>
     <row r="544" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A544">
-        <v>1.0999999999999999E-2</v>
+        <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="545" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A545">
-        <v>0</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="546" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A546">
-        <v>0</v>
+        <v>0.19500000000000001</v>
       </c>
     </row>
     <row r="547" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A547">
-        <v>0</v>
+        <v>1.0999999999999999E-2</v>
       </c>
     </row>
     <row r="548" spans="1:1" x14ac:dyDescent="0.25">
@@ -10603,77 +10599,77 @@
     </row>
     <row r="557" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A557">
-        <v>0.13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="558" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A558">
-        <v>0.35299999999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="559" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A559">
-        <v>0.53900000000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="560" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A560">
-        <v>0.67</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="561" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A561">
-        <v>0.749</v>
+        <v>0.35299999999999998</v>
       </c>
     </row>
     <row r="562" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A562">
-        <v>0.77900000000000003</v>
+        <v>0.53900000000000003</v>
       </c>
     </row>
     <row r="563" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A563">
-        <v>0.76200000000000001</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="564" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A564">
-        <v>0.69599999999999995</v>
+        <v>0.749</v>
       </c>
     </row>
     <row r="565" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A565">
-        <v>0.57999999999999996</v>
+        <v>0.77900000000000003</v>
       </c>
     </row>
     <row r="566" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A566">
-        <v>0.40899999999999997</v>
+        <v>0.76200000000000001</v>
       </c>
     </row>
     <row r="567" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A567">
-        <v>0.19400000000000001</v>
+        <v>0.69599999999999995</v>
       </c>
     </row>
     <row r="568" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A568">
-        <v>0.01</v>
+        <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="569" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A569">
-        <v>0</v>
+        <v>0.40899999999999997</v>
       </c>
     </row>
     <row r="570" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A570">
-        <v>0</v>
+        <v>0.19400000000000001</v>
       </c>
     </row>
     <row r="571" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A571">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="572" spans="1:1" x14ac:dyDescent="0.25">
@@ -10723,77 +10719,77 @@
     </row>
     <row r="581" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A581">
-        <v>0.13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="582" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A582">
-        <v>0.35599999999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="583" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A583">
-        <v>0.54900000000000004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="584" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A584">
-        <v>0.68100000000000005</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="585" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A585">
-        <v>0.75900000000000001</v>
+        <v>0.35599999999999998</v>
       </c>
     </row>
     <row r="586" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A586">
-        <v>0.78800000000000003</v>
+        <v>0.54900000000000004</v>
       </c>
     </row>
     <row r="587" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A587">
-        <v>0.76800000000000002</v>
+        <v>0.68100000000000005</v>
       </c>
     </row>
     <row r="588" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A588">
-        <v>0.70099999999999996</v>
+        <v>0.75900000000000001</v>
       </c>
     </row>
     <row r="589" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A589">
-        <v>0.57899999999999996</v>
+        <v>0.78800000000000003</v>
       </c>
     </row>
     <row r="590" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A590">
-        <v>0.40400000000000003</v>
+        <v>0.76800000000000002</v>
       </c>
     </row>
     <row r="591" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A591">
-        <v>0.187</v>
+        <v>0.70099999999999996</v>
       </c>
     </row>
     <row r="592" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A592">
-        <v>8.9999999999999993E-3</v>
+        <v>0.57899999999999996</v>
       </c>
     </row>
     <row r="593" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A593">
-        <v>0</v>
+        <v>0.40400000000000003</v>
       </c>
     </row>
     <row r="594" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A594">
-        <v>0</v>
+        <v>0.187</v>
       </c>
     </row>
     <row r="595" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A595">
-        <v>0</v>
+        <v>8.9999999999999993E-3</v>
       </c>
     </row>
     <row r="596" spans="1:1" x14ac:dyDescent="0.25">
@@ -10843,77 +10839,77 @@
     </row>
     <row r="605" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A605">
-        <v>0.108</v>
+        <v>0</v>
       </c>
     </row>
     <row r="606" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A606">
-        <v>0.32600000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="607" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A607">
-        <v>0.51300000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="608" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A608">
-        <v>0.64600000000000002</v>
+        <v>0.108</v>
       </c>
     </row>
     <row r="609" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A609">
-        <v>0.72699999999999998</v>
+        <v>0.32600000000000001</v>
       </c>
     </row>
     <row r="610" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A610">
-        <v>0.76100000000000001</v>
+        <v>0.51300000000000001</v>
       </c>
     </row>
     <row r="611" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A611">
-        <v>0.74399999999999999</v>
+        <v>0.64600000000000002</v>
       </c>
     </row>
     <row r="612" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A612">
-        <v>0.67800000000000005</v>
+        <v>0.72699999999999998</v>
       </c>
     </row>
     <row r="613" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A613">
-        <v>0.56200000000000006</v>
+        <v>0.76100000000000001</v>
       </c>
     </row>
     <row r="614" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A614">
-        <v>0.39100000000000001</v>
+        <v>0.74399999999999999</v>
       </c>
     </row>
     <row r="615" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A615">
-        <v>0.17899999999999999</v>
+        <v>0.67800000000000005</v>
       </c>
     </row>
     <row r="616" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A616">
-        <v>8.0000000000000002E-3</v>
+        <v>0.56200000000000006</v>
       </c>
     </row>
     <row r="617" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A617">
-        <v>0</v>
+        <v>0.39100000000000001</v>
       </c>
     </row>
     <row r="618" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A618">
-        <v>0</v>
+        <v>0.17899999999999999</v>
       </c>
     </row>
     <row r="619" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A619">
-        <v>0</v>
+        <v>8.0000000000000002E-3</v>
       </c>
     </row>
     <row r="620" spans="1:1" x14ac:dyDescent="0.25">
@@ -10963,77 +10959,77 @@
     </row>
     <row r="629" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A629">
-        <v>0.115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="630" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A630">
-        <v>0.33400000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="631" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A631">
-        <v>0.51900000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="632" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A632">
-        <v>0.65200000000000002</v>
+        <v>0.115</v>
       </c>
     </row>
     <row r="633" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A633">
-        <v>0.73199999999999998</v>
+        <v>0.33400000000000002</v>
       </c>
     </row>
     <row r="634" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A634">
-        <v>0.76500000000000001</v>
+        <v>0.51900000000000002</v>
       </c>
     </row>
     <row r="635" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A635">
-        <v>0.747</v>
+        <v>0.65200000000000002</v>
       </c>
     </row>
     <row r="636" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A636">
-        <v>0.68100000000000005</v>
+        <v>0.73199999999999998</v>
       </c>
     </row>
     <row r="637" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A637">
-        <v>0.56399999999999995</v>
+        <v>0.76500000000000001</v>
       </c>
     </row>
     <row r="638" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A638">
-        <v>0.39300000000000002</v>
+        <v>0.747</v>
       </c>
     </row>
     <row r="639" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A639">
-        <v>0.18</v>
+        <v>0.68100000000000005</v>
       </c>
     </row>
     <row r="640" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A640">
-        <v>7.0000000000000001E-3</v>
+        <v>0.56399999999999995</v>
       </c>
     </row>
     <row r="641" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A641">
-        <v>0</v>
+        <v>0.39300000000000002</v>
       </c>
     </row>
     <row r="642" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A642">
-        <v>0</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="643" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A643">
-        <v>0</v>
+        <v>7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="644" spans="1:1" x14ac:dyDescent="0.25">
@@ -11083,77 +11079,77 @@
     </row>
     <row r="653" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A653">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="654" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A654">
-        <v>0.308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="655" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A655">
-        <v>0.503</v>
+        <v>0</v>
       </c>
     </row>
     <row r="656" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A656">
-        <v>0.65200000000000002</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="657" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A657">
-        <v>0.73299999999999998</v>
+        <v>0.308</v>
       </c>
     </row>
     <row r="658" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A658">
-        <v>0.77200000000000002</v>
+        <v>0.503</v>
       </c>
     </row>
     <row r="659" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A659">
-        <v>0.754</v>
+        <v>0.65200000000000002</v>
       </c>
     </row>
     <row r="660" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A660">
-        <v>0.68799999999999994</v>
+        <v>0.73299999999999998</v>
       </c>
     </row>
     <row r="661" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A661">
-        <v>0.57299999999999995</v>
+        <v>0.77200000000000002</v>
       </c>
     </row>
     <row r="662" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A662">
-        <v>0.40200000000000002</v>
+        <v>0.754</v>
       </c>
     </row>
     <row r="663" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A663">
-        <v>0.186</v>
+        <v>0.68799999999999994</v>
       </c>
     </row>
     <row r="664" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A664">
-        <v>7.0000000000000001E-3</v>
+        <v>0.57299999999999995</v>
       </c>
     </row>
     <row r="665" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A665">
-        <v>0</v>
+        <v>0.40200000000000002</v>
       </c>
     </row>
     <row r="666" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A666">
-        <v>0</v>
+        <v>0.186</v>
       </c>
     </row>
     <row r="667" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A667">
-        <v>0</v>
+        <v>7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="668" spans="1:1" x14ac:dyDescent="0.25">
@@ -11203,77 +11199,77 @@
     </row>
     <row r="677" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A677">
-        <v>9.7000000000000003E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="678" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A678">
-        <v>0.31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="679" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A679">
-        <v>0.50700000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="680" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A680">
-        <v>0.64900000000000002</v>
+        <v>9.7000000000000003E-2</v>
       </c>
     </row>
     <row r="681" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A681">
-        <v>0.73099999999999998</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="682" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A682">
-        <v>0.76200000000000001</v>
+        <v>0.50700000000000001</v>
       </c>
     </row>
     <row r="683" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A683">
-        <v>0.74399999999999999</v>
+        <v>0.64900000000000002</v>
       </c>
     </row>
     <row r="684" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A684">
-        <v>0.67700000000000005</v>
+        <v>0.73099999999999998</v>
       </c>
     </row>
     <row r="685" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A685">
-        <v>0.55800000000000005</v>
+        <v>0.76200000000000001</v>
       </c>
     </row>
     <row r="686" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A686">
-        <v>0.38700000000000001</v>
+        <v>0.74399999999999999</v>
       </c>
     </row>
     <row r="687" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A687">
-        <v>0.17100000000000001</v>
+        <v>0.67700000000000005</v>
       </c>
     </row>
     <row r="688" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A688">
-        <v>5.0000000000000001E-3</v>
+        <v>0.55800000000000005</v>
       </c>
     </row>
     <row r="689" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A689">
-        <v>0</v>
+        <v>0.38700000000000001</v>
       </c>
     </row>
     <row r="690" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A690">
-        <v>0</v>
+        <v>0.17100000000000001</v>
       </c>
     </row>
     <row r="691" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A691">
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="692" spans="1:1" x14ac:dyDescent="0.25">
@@ -11323,77 +11319,77 @@
     </row>
     <row r="701" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A701">
-        <v>0.105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="702" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A702">
-        <v>0.32800000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="703" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A703">
-        <v>0.52100000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="704" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A704">
-        <v>0.65500000000000003</v>
+        <v>0.105</v>
       </c>
     </row>
     <row r="705" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A705">
-        <v>0.73499999999999999</v>
+        <v>0.32800000000000001</v>
       </c>
     </row>
     <row r="706" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A706">
-        <v>0.76700000000000002</v>
+        <v>0.52100000000000002</v>
       </c>
     </row>
     <row r="707" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A707">
-        <v>0.749</v>
+        <v>0.65500000000000003</v>
       </c>
     </row>
     <row r="708" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A708">
-        <v>0.68200000000000005</v>
+        <v>0.73499999999999999</v>
       </c>
     </row>
     <row r="709" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A709">
-        <v>0.56799999999999995</v>
+        <v>0.76700000000000002</v>
       </c>
     </row>
     <row r="710" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A710">
-        <v>0.39600000000000002</v>
+        <v>0.749</v>
       </c>
     </row>
     <row r="711" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A711">
-        <v>0.17799999999999999</v>
+        <v>0.68200000000000005</v>
       </c>
     </row>
     <row r="712" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A712">
-        <v>6.0000000000000001E-3</v>
+        <v>0.56799999999999995</v>
       </c>
     </row>
     <row r="713" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A713">
-        <v>0</v>
+        <v>0.39600000000000002</v>
       </c>
     </row>
     <row r="714" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A714">
-        <v>0</v>
+        <v>0.17799999999999999</v>
       </c>
     </row>
     <row r="715" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A715">
-        <v>0</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="716" spans="1:1" x14ac:dyDescent="0.25">
